--- a/store/clean_data_chronos.xlsx
+++ b/store/clean_data_chronos.xlsx
@@ -512,7 +512,7 @@
         <v>261948.3265625</v>
       </c>
       <c r="C2" t="n">
-        <v>2557.265161132812</v>
+        <v>2272.333520507812</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -534,33 +534,33 @@
         <v>7.55801994027294</v>
       </c>
       <c r="I2" t="n">
-        <v>73.78501452573902</v>
+        <v>0.06556385484238211</v>
       </c>
       <c r="J2" t="n">
-        <v>33.11327481155116</v>
+        <v>29.42377875853246</v>
       </c>
       <c r="K2" t="n">
         <v>109232.4521765625</v>
       </c>
       <c r="L2" t="n">
-        <v>3324.444709472656</v>
+        <v>2954.033576660156</v>
       </c>
       <c r="M2" t="n">
-        <v>8.410481956585384</v>
+        <v>8.38280407779496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B3" t="n">
-        <v>288268.6546875</v>
+        <v>287015.303125</v>
       </c>
       <c r="C3" t="n">
-        <v>2576.2607421875</v>
+        <v>2326.94580078125</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -576,36 +576,36 @@
         <v>34658.327</v>
       </c>
       <c r="H3" t="n">
-        <v>8.317442866976817</v>
+        <v>8.281279795328839</v>
       </c>
       <c r="I3" t="n">
-        <v>74.3330958296833</v>
+        <v>0.06713958815095865</v>
       </c>
       <c r="J3" t="n">
-        <v>33.35924300649202</v>
+        <v>28.69613059181508</v>
       </c>
       <c r="K3" t="n">
-        <v>120208.0290046875</v>
+        <v>119685.381403125</v>
       </c>
       <c r="L3" t="n">
-        <v>3349.13896484375</v>
+        <v>3025.029541015625</v>
       </c>
       <c r="M3" t="n">
-        <v>9.232444750735324</v>
+        <v>9.169173330851823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B4" t="n">
-        <v>303726.609375</v>
+        <v>259023.671875</v>
       </c>
       <c r="C4" t="n">
-        <v>2208.22265625</v>
+        <v>2331.694750976562</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -621,36 +621,36 @@
         <v>34658.327</v>
       </c>
       <c r="H4" t="n">
-        <v>8.763452701424395</v>
+        <v>7.473634600856528</v>
       </c>
       <c r="I4" t="n">
-        <v>63.71405798814236</v>
+        <v>0.06727661006189256</v>
       </c>
       <c r="J4" t="n">
-        <v>28.59362602394681</v>
+        <v>28.75469512517591</v>
       </c>
       <c r="K4" t="n">
-        <v>126653.996109375</v>
+        <v>108012.871171875</v>
       </c>
       <c r="L4" t="n">
-        <v>2870.689453125</v>
+        <v>3031.203176269531</v>
       </c>
       <c r="M4" t="n">
-        <v>9.678349892310848</v>
+        <v>8.297440756885933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B5" t="n">
-        <v>291193.20625</v>
+        <v>266126.021875</v>
       </c>
       <c r="C5" t="n">
-        <v>2272.333520507812</v>
+        <v>2512.149951171875</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -666,36 +666,36 @@
         <v>34658.327</v>
       </c>
       <c r="H5" t="n">
-        <v>8.401825230917812</v>
+        <v>7.678559379828115</v>
       </c>
       <c r="I5" t="n">
-        <v>65.56385484238211</v>
+        <v>0.07248330108870735</v>
       </c>
       <c r="J5" t="n">
-        <v>29.42377875853246</v>
+        <v>34.24114865294519</v>
       </c>
       <c r="K5" t="n">
-        <v>121427.56700625</v>
+        <v>110974.551121875</v>
       </c>
       <c r="L5" t="n">
-        <v>2954.033576660156</v>
+        <v>3265.794936523437</v>
       </c>
       <c r="M5" t="n">
-        <v>9.294048044812133</v>
+        <v>8.536272728014749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B6" t="n">
         <v>271557.34375</v>
       </c>
       <c r="C6" t="n">
-        <v>2258.086889648438</v>
+        <v>2326.94580078125</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -714,33 +714,33 @@
         <v>7.835269825632381</v>
       </c>
       <c r="I6" t="n">
-        <v>65.15279544937174</v>
+        <v>0.06713958815095865</v>
       </c>
       <c r="J6" t="n">
-        <v>29.23930332362049</v>
+        <v>26.20081488817899</v>
       </c>
       <c r="K6" t="n">
         <v>113239.41234375</v>
       </c>
       <c r="L6" t="n">
-        <v>2935.512956542969</v>
+        <v>3025.029541015625</v>
       </c>
       <c r="M6" t="n">
-        <v>8.680828452787553</v>
+        <v>8.687517315392611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B7" t="n">
-        <v>287015.303125</v>
+        <v>254846.140625</v>
       </c>
       <c r="C7" t="n">
-        <v>2386.30615234375</v>
+        <v>2184.47998046875</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -756,36 +756,36 @@
         <v>34658.327</v>
       </c>
       <c r="H7" t="n">
-        <v>8.281279795328839</v>
+        <v>7.353099895012244</v>
       </c>
       <c r="I7" t="n">
-        <v>68.85231801130361</v>
+        <v>0.0630290083092802</v>
       </c>
       <c r="J7" t="n">
-        <v>30.89957686360942</v>
+        <v>26.93922770942521</v>
       </c>
       <c r="K7" t="n">
-        <v>119685.381403125</v>
+        <v>106270.840640625</v>
       </c>
       <c r="L7" t="n">
-        <v>3102.197998046875</v>
+        <v>2839.823974609375</v>
       </c>
       <c r="M7" t="n">
-        <v>9.174939516074005</v>
+        <v>8.152972420220685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B8" t="n">
-        <v>308322.009375</v>
+        <v>270303.925</v>
       </c>
       <c r="C8" t="n">
-        <v>2208.22265625</v>
+        <v>2217.721948242187</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -801,36 +801,36 @@
         <v>34658.327</v>
       </c>
       <c r="H8" t="n">
-        <v>8.896044213992212</v>
+        <v>7.799104815417086</v>
       </c>
       <c r="I8" t="n">
-        <v>63.71405798814236</v>
+        <v>0.06398814196202221</v>
       </c>
       <c r="J8" t="n">
-        <v>28.59362602394681</v>
+        <v>27.34917101280392</v>
       </c>
       <c r="K8" t="n">
-        <v>128570.277909375</v>
+        <v>112716.736725</v>
       </c>
       <c r="L8" t="n">
-        <v>2870.689453125</v>
+        <v>2883.038532714844</v>
       </c>
       <c r="M8" t="n">
-        <v>9.821538394735105</v>
+        <v>8.637852063163644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B9" t="n">
-        <v>307068.75</v>
+        <v>265290.5640625</v>
       </c>
       <c r="C9" t="n">
-        <v>2421.923095703125</v>
+        <v>2148.863037109375</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -846,36 +846,36 @@
         <v>34658.327</v>
       </c>
       <c r="H9" t="n">
-        <v>8.859883802238926</v>
+        <v>7.654453836231046</v>
       </c>
       <c r="I9" t="n">
-        <v>69.87997706014849</v>
+        <v>0.06200134926043531</v>
       </c>
       <c r="J9" t="n">
-        <v>31.36077019284713</v>
+        <v>25.29545069605343</v>
       </c>
       <c r="K9" t="n">
-        <v>128047.66875</v>
+        <v>110626.1652140625</v>
       </c>
       <c r="L9" t="n">
-        <v>3148.500024414062</v>
+        <v>2793.521948242188</v>
       </c>
       <c r="M9" t="n">
-        <v>9.803246542658027</v>
+        <v>8.47495141382557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B10" t="n">
-        <v>303726.490625</v>
+        <v>266543.9828125</v>
       </c>
       <c r="C10" t="n">
-        <v>2146.487573242187</v>
+        <v>2288.953393554687</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -891,36 +891,36 @@
         <v>34658.327</v>
       </c>
       <c r="H10" t="n">
-        <v>8.763449275119367</v>
+        <v>7.690618846446339</v>
       </c>
       <c r="I10" t="n">
-        <v>61.93280977590717</v>
+        <v>0.06604338961758563</v>
       </c>
       <c r="J10" t="n">
-        <v>27.79423658235834</v>
+        <v>28.2276043893978</v>
       </c>
       <c r="K10" t="n">
-        <v>126653.946590625</v>
+        <v>111148.8408328125</v>
       </c>
       <c r="L10" t="n">
-        <v>2790.433845214844</v>
+        <v>2975.639411621094</v>
       </c>
       <c r="M10" t="n">
-        <v>9.672349328707176</v>
+        <v>8.527614996994293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B11" t="n">
-        <v>287433.1</v>
+        <v>278659.51875</v>
       </c>
       <c r="C11" t="n">
-        <v>2298.452612304688</v>
+        <v>2136.991455078125</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -936,22 +936,22 @@
         <v>34658.327</v>
       </c>
       <c r="H11" t="n">
-        <v>8.293334528236173</v>
+        <v>8.040189555312351</v>
       </c>
       <c r="I11" t="n">
-        <v>66.3174714782017</v>
+        <v>0.06165881737679159</v>
       </c>
       <c r="J11" t="n">
-        <v>29.76198719997344</v>
+        <v>26.35359441888421</v>
       </c>
       <c r="K11" t="n">
-        <v>119859.6027</v>
+        <v>116201.01931875</v>
       </c>
       <c r="L11" t="n">
-        <v>2987.988395996094</v>
+        <v>2778.088891601562</v>
       </c>
       <c r="M11" t="n">
-        <v>9.179423712871065</v>
+        <v>8.89036274540307</v>
       </c>
     </row>
     <row r="12">
@@ -959,10 +959,10 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>402492.90625</v>
+        <v>401385.203125</v>
       </c>
       <c r="C12" t="n">
-        <v>2479.842529296875</v>
+        <v>2645.991235351562</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -981,36 +981,36 @@
         <v>36789.357</v>
       </c>
       <c r="H12" t="n">
-        <v>10.9404713501788</v>
+        <v>10.91036201380198</v>
       </c>
       <c r="I12" t="n">
-        <v>67.40652002417097</v>
+        <v>0.07192273665863641</v>
       </c>
       <c r="J12" t="n">
-        <v>30.25073093767673</v>
+        <v>32.27752084192463</v>
       </c>
       <c r="K12" t="n">
-        <v>167839.54190625</v>
+        <v>167377.629703125</v>
       </c>
       <c r="L12" t="n">
-        <v>3223.795288085938</v>
+        <v>3439.788605957031</v>
       </c>
       <c r="M12" t="n">
-        <v>11.34426877391371</v>
+        <v>11.32796037039103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>419848.271875</v>
+        <v>403970.19375</v>
       </c>
       <c r="C13" t="n">
-        <v>2531.918017578125</v>
+        <v>2430.24560546875</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1026,36 +1026,36 @@
         <v>36789.357</v>
       </c>
       <c r="H13" t="n">
-        <v>11.41222098214437</v>
+        <v>10.98062664563558</v>
       </c>
       <c r="I13" t="n">
-        <v>68.82202419515309</v>
+        <v>0.06605838763283495</v>
       </c>
       <c r="J13" t="n">
-        <v>30.88598159001992</v>
+        <v>28.23401469092132</v>
       </c>
       <c r="K13" t="n">
-        <v>175076.729371875</v>
+        <v>168455.57079375</v>
       </c>
       <c r="L13" t="n">
-        <v>3291.493422851562</v>
+        <v>3159.319287109375</v>
       </c>
       <c r="M13" t="n">
-        <v>11.82870095542424</v>
+        <v>11.38084565993951</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>422432.9125</v>
+        <v>413570.9375</v>
       </c>
       <c r="C14" t="n">
-        <v>2539.357006835938</v>
+        <v>2298.813134765625</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1071,36 +1071,36 @@
         <v>36789.357</v>
       </c>
       <c r="H14" t="n">
-        <v>11.48247610035696</v>
+        <v>11.24159189572136</v>
       </c>
       <c r="I14" t="n">
-        <v>69.02422912245891</v>
+        <v>0.06248581987354725</v>
       </c>
       <c r="J14" t="n">
-        <v>30.97672721593277</v>
+        <v>26.70706354641741</v>
       </c>
       <c r="K14" t="n">
-        <v>176154.5245125</v>
+        <v>172459.0809375</v>
       </c>
       <c r="L14" t="n">
-        <v>3301.164108886719</v>
+        <v>2988.457075195312</v>
       </c>
       <c r="M14" t="n">
-        <v>11.90081754581943</v>
+        <v>11.63501226844626</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>419848.271875</v>
+        <v>405077.896875</v>
       </c>
       <c r="C15" t="n">
-        <v>2298.813134765625</v>
+        <v>2400.487524414063</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1116,36 +1116,36 @@
         <v>36789.357</v>
       </c>
       <c r="H15" t="n">
-        <v>11.41222098214437</v>
+        <v>11.0107359820124</v>
       </c>
       <c r="I15" t="n">
-        <v>62.48581987354726</v>
+        <v>0.06524951018888595</v>
       </c>
       <c r="J15" t="n">
-        <v>28.04241672373828</v>
+        <v>30.82390211747115</v>
       </c>
       <c r="K15" t="n">
-        <v>175076.729371875</v>
+        <v>168917.482996875</v>
       </c>
       <c r="L15" t="n">
-        <v>2988.457075195312</v>
+        <v>3120.633781738281</v>
       </c>
       <c r="M15" t="n">
-        <v>11.80860473941173</v>
+        <v>11.40891244204701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>406185.75</v>
+        <v>400646.784375</v>
       </c>
       <c r="C16" t="n">
-        <v>2231.8583984375</v>
+        <v>2050.829077148438</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1161,36 +1161,36 @@
         <v>36789.357</v>
       </c>
       <c r="H16" t="n">
-        <v>11.04084939565538</v>
+        <v>10.89029048197282</v>
       </c>
       <c r="I16" t="n">
-        <v>60.66587133984157</v>
+        <v>0.05574517318007046</v>
       </c>
       <c r="J16" t="n">
-        <v>27.22565933300207</v>
+        <v>21.75421392392993</v>
       </c>
       <c r="K16" t="n">
-        <v>169379.45775</v>
+        <v>167069.709084375</v>
       </c>
       <c r="L16" t="n">
-        <v>2901.41591796875</v>
+        <v>2666.077800292969</v>
       </c>
       <c r="M16" t="n">
-        <v>11.42501115404887</v>
+        <v>11.25623069532381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>425017.903125</v>
+        <v>412463.084375</v>
       </c>
       <c r="C17" t="n">
-        <v>2135.143603515625</v>
+        <v>1968.995593261719</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1206,36 +1206,36 @@
         <v>36789.357</v>
       </c>
       <c r="H17" t="n">
-        <v>11.55274073219056</v>
+        <v>11.21147848207839</v>
       </c>
       <c r="I17" t="n">
-        <v>58.03699160916634</v>
+        <v>0.05352079388780072</v>
       </c>
       <c r="J17" t="n">
-        <v>26.04586940508928</v>
+        <v>22.8753218939729</v>
       </c>
       <c r="K17" t="n">
-        <v>177232.465603125</v>
+        <v>171997.106184375</v>
       </c>
       <c r="L17" t="n">
-        <v>2775.686684570313</v>
+        <v>2559.694271240235</v>
       </c>
       <c r="M17" t="n">
-        <v>11.93745483129052</v>
+        <v>11.57594194735778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>428341.3125</v>
+        <v>403970.19375</v>
       </c>
       <c r="C18" t="n">
-        <v>1894.598742675781</v>
+        <v>1795.40517578125</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1251,36 +1251,36 @@
         <v>36789.357</v>
       </c>
       <c r="H18" t="n">
-        <v>11.64307689585333</v>
+        <v>10.98062664563558</v>
       </c>
       <c r="I18" t="n">
-        <v>51.49855548374442</v>
+        <v>0.04880229833267404</v>
       </c>
       <c r="J18" t="n">
-        <v>23.11154685124139</v>
+        <v>20.8585897635587</v>
       </c>
       <c r="K18" t="n">
-        <v>178618.3273125</v>
+        <v>168455.57079375</v>
       </c>
       <c r="L18" t="n">
-        <v>2462.978365478516</v>
+        <v>2334.026728515625</v>
       </c>
       <c r="M18" t="n">
-        <v>12.00862227543537</v>
+        <v>11.32611540180616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>424648.46875</v>
+        <v>401385.203125</v>
       </c>
       <c r="C19" t="n">
-        <v>2070.667883300781</v>
+        <v>2100.425927734375</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1296,36 +1296,36 @@
         <v>36789.357</v>
       </c>
       <c r="H19" t="n">
-        <v>11.54269885037675</v>
+        <v>10.91036201380198</v>
       </c>
       <c r="I19" t="n">
-        <v>56.28442713203118</v>
+        <v>0.05709330358055387</v>
       </c>
       <c r="J19" t="n">
-        <v>25.25935266413106</v>
+        <v>23.29305511933905</v>
       </c>
       <c r="K19" t="n">
-        <v>177078.41146875</v>
+        <v>167377.629703125</v>
       </c>
       <c r="L19" t="n">
-        <v>2691.868248291016</v>
+        <v>2730.553706054688</v>
       </c>
       <c r="M19" t="n">
-        <v>11.92168002869575</v>
+        <v>11.28092661400411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>418740.56875</v>
+        <v>411355.38125</v>
       </c>
       <c r="C20" t="n">
-        <v>1909.477783203125</v>
+        <v>1859.880981445312</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1341,36 +1341,36 @@
         <v>36789.357</v>
       </c>
       <c r="H20" t="n">
-        <v>11.38211164576755</v>
+        <v>11.18136914570157</v>
       </c>
       <c r="I20" t="n">
-        <v>51.90299420571892</v>
+        <v>0.05055486513247057</v>
       </c>
       <c r="J20" t="n">
-        <v>23.2930510581763</v>
+        <v>21.60765431910473</v>
       </c>
       <c r="K20" t="n">
-        <v>174614.81716875</v>
+        <v>171535.19398125</v>
       </c>
       <c r="L20" t="n">
-        <v>2482.321118164063</v>
+        <v>2417.845275878906</v>
       </c>
       <c r="M20" t="n">
-        <v>11.74440747367951</v>
+        <v>11.53590280499551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>425017.903125</v>
+        <v>391415.375</v>
       </c>
       <c r="C21" t="n">
-        <v>1926.837817382813</v>
+        <v>1678.853930664063</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1386,22 +1386,22 @@
         <v>36789.357</v>
       </c>
       <c r="H21" t="n">
-        <v>11.55274073219056</v>
+        <v>10.63936439552341</v>
       </c>
       <c r="I21" t="n">
-        <v>52.37487073728449</v>
+        <v>0.04563422868913045</v>
       </c>
       <c r="J21" t="n">
-        <v>23.50482003819597</v>
+        <v>19.50452515400697</v>
       </c>
       <c r="K21" t="n">
-        <v>177232.465603125</v>
+        <v>163220.211375</v>
       </c>
       <c r="L21" t="n">
-        <v>2504.889162597656</v>
+        <v>2182.510109863281</v>
       </c>
       <c r="M21" t="n">
-        <v>11.9194965713679</v>
+        <v>10.9688783069246</v>
       </c>
     </row>
     <row r="22">
@@ -1409,10 +1409,10 @@
         <v>45352</v>
       </c>
       <c r="B22" t="n">
-        <v>116586.31484375</v>
+        <v>123491.86328125</v>
       </c>
       <c r="C22" t="n">
-        <v>865.6387939453125</v>
+        <v>790.7025573730468</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -1431,36 +1431,36 @@
         <v>10970</v>
       </c>
       <c r="H22" t="n">
-        <v>10.62774064209207</v>
+        <v>11.25723457440747</v>
       </c>
       <c r="I22" t="n">
-        <v>78.90964393302758</v>
+        <v>0.07207862874868248</v>
       </c>
       <c r="J22" t="n">
-        <v>35.41310849677335</v>
+        <v>32.34748217014042</v>
       </c>
       <c r="K22" t="n">
-        <v>48616.49328984375</v>
+        <v>51496.10698828124</v>
       </c>
       <c r="L22" t="n">
-        <v>1125.330432128906</v>
+        <v>1027.913324584961</v>
       </c>
       <c r="M22" t="n">
-        <v>37.09987197079486</v>
+        <v>39.17496953651072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="n">
-        <v>112913.13203125</v>
+        <v>121728.72578125</v>
       </c>
       <c r="C23" t="n">
-        <v>855.3024108886718</v>
+        <v>779.7207092285156</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1476,36 +1476,36 @@
         <v>10970</v>
       </c>
       <c r="H23" t="n">
-        <v>10.29290173484503</v>
+        <v>11.0965110101413</v>
       </c>
       <c r="I23" t="n">
-        <v>77.96740299805577</v>
+        <v>0.07107754869904427</v>
       </c>
       <c r="J23" t="n">
-        <v>34.99024915034698</v>
+        <v>30.37925426393529</v>
       </c>
       <c r="K23" t="n">
-        <v>47084.77605703125</v>
+        <v>50760.87865078125</v>
       </c>
       <c r="L23" t="n">
-        <v>1111.893134155273</v>
+        <v>1013.63692199707</v>
       </c>
       <c r="M23" t="n">
-        <v>35.94742055309711</v>
+        <v>38.61595243946606</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B24" t="n">
-        <v>115851.66328125</v>
+        <v>118275.984375</v>
       </c>
       <c r="C24" t="n">
-        <v>816.54248046875</v>
+        <v>831.4005798339844</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1521,36 +1521,36 @@
         <v>10970</v>
       </c>
       <c r="H24" t="n">
-        <v>10.56077149327712</v>
+        <v>10.78176703509572</v>
       </c>
       <c r="I24" t="n">
-        <v>74.43413677928442</v>
+        <v>0.07578856698577797</v>
       </c>
       <c r="J24" t="n">
-        <v>33.40458821314227</v>
+        <v>32.39279053515249</v>
       </c>
       <c r="K24" t="n">
-        <v>48310.14358828125</v>
+        <v>49321.085484375</v>
       </c>
       <c r="L24" t="n">
-        <v>1061.505224609375</v>
+        <v>1080.82075378418</v>
       </c>
       <c r="M24" t="n">
-        <v>36.82377751534213</v>
+        <v>37.59219362304387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B25" t="n">
-        <v>114602.7734375</v>
+        <v>115704.75546875</v>
       </c>
       <c r="C25" t="n">
-        <v>818.4805969238281</v>
+        <v>812.6664855957031</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1566,36 +1566,36 @@
         <v>10970</v>
       </c>
       <c r="H25" t="n">
-        <v>10.44692556403829</v>
+        <v>10.54737971456244</v>
       </c>
       <c r="I25" t="n">
-        <v>74.61081102313838</v>
+        <v>0.07408080999049253</v>
       </c>
       <c r="J25" t="n">
-        <v>33.48387616648161</v>
+        <v>34.99581267843549</v>
       </c>
       <c r="K25" t="n">
-        <v>47789.3565234375</v>
+        <v>48248.88303046874</v>
       </c>
       <c r="L25" t="n">
-        <v>1064.024776000977</v>
+        <v>1056.466431274414</v>
       </c>
       <c r="M25" t="n">
-        <v>36.43722839114498</v>
+        <v>36.77432823392724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B26" t="n">
-        <v>115117.04921875</v>
+        <v>113133.5078125</v>
       </c>
       <c r="C26" t="n">
-        <v>853.36455078125</v>
+        <v>829.4624450683593</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1611,36 +1611,36 @@
         <v>10970</v>
       </c>
       <c r="H26" t="n">
-        <v>10.49380576287603</v>
+        <v>10.31299068482224</v>
       </c>
       <c r="I26" t="n">
-        <v>77.79075212226527</v>
+        <v>0.0756118910727766</v>
       </c>
       <c r="J26" t="n">
-        <v>34.91097168413855</v>
+        <v>29.50707944303477</v>
       </c>
       <c r="K26" t="n">
-        <v>48003.80952421875</v>
+        <v>47176.6727578125</v>
       </c>
       <c r="L26" t="n">
-        <v>1109.373916015625</v>
+        <v>1078.301178588867</v>
       </c>
       <c r="M26" t="n">
-        <v>36.63100146659836</v>
+        <v>35.99090706848607</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B27" t="n">
-        <v>107991.1328125</v>
+        <v>112913.13203125</v>
       </c>
       <c r="C27" t="n">
-        <v>807.49853515625</v>
+        <v>837.8607543945312</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1656,36 +1656,36 @@
         <v>10970</v>
       </c>
       <c r="H27" t="n">
-        <v>9.844223592752963</v>
+        <v>10.29290173484503</v>
       </c>
       <c r="I27" t="n">
-        <v>73.60971150011395</v>
+        <v>0.07637746165857168</v>
       </c>
       <c r="J27" t="n">
-        <v>33.03460223419747</v>
+        <v>32.64449000041158</v>
       </c>
       <c r="K27" t="n">
-        <v>45032.3023828125</v>
+        <v>47084.77605703125</v>
       </c>
       <c r="L27" t="n">
-        <v>1049.748095703125</v>
+        <v>1089.218980712891</v>
       </c>
       <c r="M27" t="n">
-        <v>34.37023504527097</v>
+        <v>35.93050906640816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B28" t="n">
-        <v>119524.84609375</v>
+        <v>109974.603125</v>
       </c>
       <c r="C28" t="n">
-        <v>813.9589233398438</v>
+        <v>781.6585693359375</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1701,36 +1701,36 @@
         <v>10970</v>
       </c>
       <c r="H28" t="n">
-        <v>10.89561040052416</v>
+        <v>10.02503219006381</v>
       </c>
       <c r="I28" t="n">
-        <v>74.19862564629386</v>
+        <v>0.07125419957483478</v>
       </c>
       <c r="J28" t="n">
-        <v>33.29889541199529</v>
+        <v>30.45475661270522</v>
       </c>
       <c r="K28" t="n">
-        <v>49841.86082109375</v>
+        <v>45859.409503125</v>
       </c>
       <c r="L28" t="n">
-        <v>1058.146600341797</v>
+        <v>1016.156140136719</v>
       </c>
       <c r="M28" t="n">
-        <v>37.9637017171448</v>
+        <v>34.96207725804373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B29" t="n">
-        <v>117835.2046875</v>
+        <v>112913.13203125</v>
       </c>
       <c r="C29" t="n">
-        <v>807.49853515625</v>
+        <v>735.1466918945313</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1746,36 +1746,36 @@
         <v>10970</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7415865713309</v>
+        <v>10.29290173484503</v>
       </c>
       <c r="I29" t="n">
-        <v>73.60971150011395</v>
+        <v>0.06701428367315691</v>
       </c>
       <c r="J29" t="n">
-        <v>33.03460223419747</v>
+        <v>27.34063901521257</v>
       </c>
       <c r="K29" t="n">
-        <v>49137.28035468749</v>
+        <v>47084.77605703125</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.748095703125</v>
+        <v>955.6906994628907</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43192731555703</v>
+        <v>35.83091717837155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>113647.78359375</v>
+        <v>110929.61171875</v>
       </c>
       <c r="C30" t="n">
-        <v>762.9247314453125</v>
+        <v>767.4470458984375</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1791,36 +1791,36 @@
         <v>10970</v>
       </c>
       <c r="H30" t="n">
-        <v>10.35987088365998</v>
+        <v>10.11208857964904</v>
       </c>
       <c r="I30" t="n">
-        <v>69.5464659476128</v>
+        <v>0.069958709744616</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21109691307501</v>
+        <v>29.90105131941775</v>
       </c>
       <c r="K30" t="n">
-        <v>47391.12575859375</v>
+        <v>46257.64808671875</v>
       </c>
       <c r="L30" t="n">
-        <v>991.8021508789063</v>
+        <v>997.6811596679688</v>
       </c>
       <c r="M30" t="n">
-        <v>36.0863413663042</v>
+        <v>35.24532342798425</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B31" t="n">
-        <v>118275.984375</v>
+        <v>112178.51796875</v>
       </c>
       <c r="C31" t="n">
-        <v>760.3409362792969</v>
+        <v>759.0487365722656</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1836,22 +1836,22 @@
         <v>10970</v>
       </c>
       <c r="H31" t="n">
-        <v>10.78176703509572</v>
+        <v>10.22593600444394</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31093311570619</v>
+        <v>0.06919313915882093</v>
       </c>
       <c r="J31" t="n">
-        <v>31.10539437387789</v>
+        <v>29.57383880423473</v>
       </c>
       <c r="K31" t="n">
-        <v>49321.085484375</v>
+        <v>46778.44199296875</v>
       </c>
       <c r="L31" t="n">
-        <v>988.443217163086</v>
+        <v>986.7633575439453</v>
       </c>
       <c r="M31" t="n">
-        <v>37.52329396225185</v>
+        <v>35.62561383088087</v>
       </c>
     </row>
     <row r="32">
@@ -1859,10 +1859,10 @@
         <v>45352</v>
       </c>
       <c r="B32" t="n">
-        <v>104871.65625</v>
+        <v>108558.5296875</v>
       </c>
       <c r="C32" t="n">
-        <v>724.2532958984375</v>
+        <v>735.5491271972656</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -1881,36 +1881,36 @@
         <v>10965</v>
       </c>
       <c r="H32" t="n">
-        <v>9.56421853625171</v>
+        <v>9.90045870383037</v>
       </c>
       <c r="I32" t="n">
-        <v>66.05137217496009</v>
+        <v>0.06708154374804064</v>
       </c>
       <c r="J32" t="n">
-        <v>29.64256702486014</v>
+        <v>30.10488792594995</v>
       </c>
       <c r="K32" t="n">
-        <v>43731.48065625</v>
+        <v>45268.9068796875</v>
       </c>
       <c r="L32" t="n">
-        <v>941.5292846679688</v>
+        <v>956.2138653564454</v>
       </c>
       <c r="M32" t="n">
-        <v>33.34969795574708</v>
+        <v>34.50839370022256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="n">
         <v>107903.0828125</v>
       </c>
       <c r="C33" t="n">
-        <v>733.5556396484375</v>
+        <v>784.7186157226563</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1929,33 +1929,33 @@
         <v>9.840682427040583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.8997391380244</v>
+        <v>0.07156576522778443</v>
       </c>
       <c r="J33" t="n">
-        <v>30.02329756438168</v>
+        <v>30.58792288481378</v>
       </c>
       <c r="K33" t="n">
         <v>44995.5855328125</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6223315429687</v>
+        <v>1020.134200439453</v>
       </c>
       <c r="M33" t="n">
-        <v>34.30241673011846</v>
+        <v>34.35206976986446</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B34" t="n">
-        <v>104953.5515625</v>
+        <v>103560.71171875</v>
       </c>
       <c r="C34" t="n">
-        <v>724.2532958984375</v>
+        <v>714.2866455078125</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1971,36 +1971,36 @@
         <v>10965</v>
       </c>
       <c r="H34" t="n">
-        <v>9.571687329001367</v>
+        <v>9.444661351459189</v>
       </c>
       <c r="I34" t="n">
-        <v>66.05137217496009</v>
+        <v>0.06514242093094505</v>
       </c>
       <c r="J34" t="n">
-        <v>29.64256702486014</v>
+        <v>27.84252137350497</v>
       </c>
       <c r="K34" t="n">
-        <v>43765.6310015625</v>
+        <v>43184.81678671874</v>
       </c>
       <c r="L34" t="n">
-        <v>941.5292846679688</v>
+        <v>928.5726391601563</v>
       </c>
       <c r="M34" t="n">
-        <v>33.37519217927851</v>
+        <v>32.93192500579193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B35" t="n">
-        <v>103806.51953125</v>
+        <v>104625.8484375</v>
       </c>
       <c r="C35" t="n">
-        <v>720.93134765625</v>
+        <v>715.6157653808593</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2016,36 +2016,36 @@
         <v>10965</v>
       </c>
       <c r="H35" t="n">
-        <v>9.467078844619243</v>
+        <v>9.541801043091654</v>
       </c>
       <c r="I35" t="n">
-        <v>65.74841291894664</v>
+        <v>0.06526363569364882</v>
       </c>
       <c r="J35" t="n">
-        <v>29.50660482216142</v>
+        <v>30.83057501317428</v>
       </c>
       <c r="K35" t="n">
-        <v>43287.31864453125</v>
+        <v>43628.9787984375</v>
       </c>
       <c r="L35" t="n">
-        <v>937.2107519531249</v>
+        <v>930.3004949951171</v>
       </c>
       <c r="M35" t="n">
-        <v>33.01489421819569</v>
+        <v>33.26479472789283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>105445.13671875</v>
+        <v>107083.75390625</v>
       </c>
       <c r="C36" t="n">
-        <v>762.1272521972656</v>
+        <v>711.6290466308594</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2061,36 +2061,36 @@
         <v>10965</v>
       </c>
       <c r="H36" t="n">
-        <v>9.616519536593707</v>
+        <v>9.765960228568172</v>
       </c>
       <c r="I36" t="n">
-        <v>69.50544935679576</v>
+        <v>0.06490004985233556</v>
       </c>
       <c r="J36" t="n">
-        <v>31.19268946744005</v>
+        <v>25.32684872286265</v>
       </c>
       <c r="K36" t="n">
-        <v>43970.62201171875</v>
+        <v>44653.92537890625</v>
       </c>
       <c r="L36" t="n">
-        <v>990.7654278564454</v>
+        <v>925.1177606201172</v>
       </c>
       <c r="M36" t="n">
-        <v>33.56498012478318</v>
+        <v>34.02607802396794</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B37" t="n">
-        <v>108148.890625</v>
+        <v>106264.465625</v>
       </c>
       <c r="C37" t="n">
-        <v>758.8052856445313</v>
+        <v>782.0609558105468</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2106,36 +2106,36 @@
         <v>10965</v>
       </c>
       <c r="H37" t="n">
-        <v>9.863099920200638</v>
+        <v>9.69124173506612</v>
       </c>
       <c r="I37" t="n">
-        <v>69.2024884308738</v>
+        <v>0.0713233885828132</v>
       </c>
       <c r="J37" t="n">
-        <v>31.05672651531897</v>
+        <v>30.4843286858017</v>
       </c>
       <c r="K37" t="n">
-        <v>45098.087390625</v>
+        <v>44312.28216562499</v>
       </c>
       <c r="L37" t="n">
-        <v>986.4468713378907</v>
+        <v>1016.679242553711</v>
       </c>
       <c r="M37" t="n">
-        <v>34.40344181196577</v>
+        <v>33.83938475624936</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B38" t="n">
-        <v>108230.7859375</v>
+        <v>103806.51953125</v>
       </c>
       <c r="C38" t="n">
-        <v>724.2532958984375</v>
+        <v>728.9047668457031</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2151,36 +2151,36 @@
         <v>10965</v>
       </c>
       <c r="H38" t="n">
-        <v>9.870568712950297</v>
+        <v>9.467078844619243</v>
       </c>
       <c r="I38" t="n">
-        <v>66.05137217496009</v>
+        <v>0.06647558293166467</v>
       </c>
       <c r="J38" t="n">
-        <v>29.64256702486014</v>
+        <v>28.41232812874866</v>
       </c>
       <c r="K38" t="n">
-        <v>45132.2377359375</v>
+        <v>43287.31864453125</v>
       </c>
       <c r="L38" t="n">
-        <v>941.5292846679688</v>
+        <v>947.5761968994141</v>
       </c>
       <c r="M38" t="n">
-        <v>34.39540375391771</v>
+        <v>33.02263232356609</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B39" t="n">
-        <v>101594.421875</v>
+        <v>104625.8484375</v>
       </c>
       <c r="C39" t="n">
-        <v>717.6092529296875</v>
+        <v>777.4094848632812</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2196,36 +2196,36 @@
         <v>10965</v>
       </c>
       <c r="H39" t="n">
-        <v>9.265337152302781</v>
+        <v>9.541801043091654</v>
       </c>
       <c r="I39" t="n">
-        <v>65.44544030366507</v>
+        <v>0.07089917782610865</v>
       </c>
       <c r="J39" t="n">
-        <v>29.37063662408384</v>
+        <v>28.92560691796893</v>
       </c>
       <c r="K39" t="n">
-        <v>42364.873921875</v>
+        <v>43628.9787984375</v>
       </c>
       <c r="L39" t="n">
-        <v>932.8920288085938</v>
+        <v>1010.632330322266</v>
       </c>
       <c r="M39" t="n">
-        <v>32.32303841902836</v>
+        <v>33.32476477351847</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B40" t="n">
-        <v>107411.49765625</v>
+        <v>103560.71171875</v>
       </c>
       <c r="C40" t="n">
-        <v>782.7251281738281</v>
+        <v>709.6358154296875</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2241,36 +2241,36 @@
         <v>10965</v>
       </c>
       <c r="H40" t="n">
-        <v>9.795850219448244</v>
+        <v>9.444661351459189</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38396061776818</v>
+        <v>0.06471826862103852</v>
       </c>
       <c r="J40" t="n">
-        <v>32.0357286674862</v>
+        <v>27.6612344396541</v>
       </c>
       <c r="K40" t="n">
-        <v>44790.59452265625</v>
+        <v>43184.81678671874</v>
       </c>
       <c r="L40" t="n">
-        <v>1017.542666625977</v>
+        <v>922.5265600585938</v>
       </c>
       <c r="M40" t="n">
-        <v>34.19710337849232</v>
+        <v>32.92741143233627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B41" t="n">
-        <v>105445.13671875</v>
+        <v>104871.65625</v>
       </c>
       <c r="C41" t="n">
-        <v>722.2600830078125</v>
+        <v>740.2005981445312</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2286,22 +2286,22 @@
         <v>10965</v>
       </c>
       <c r="H41" t="n">
-        <v>9.616519536593707</v>
+        <v>9.56421853625171</v>
       </c>
       <c r="I41" t="n">
-        <v>65.8695926135716</v>
+        <v>0.06750575450474521</v>
       </c>
       <c r="J41" t="n">
-        <v>29.56098790462725</v>
+        <v>28.85263374883419</v>
       </c>
       <c r="K41" t="n">
-        <v>43970.62201171875</v>
+        <v>43731.48065625</v>
       </c>
       <c r="L41" t="n">
-        <v>938.9381079101562</v>
+        <v>962.2607775878906</v>
       </c>
       <c r="M41" t="n">
-        <v>33.52628952685055</v>
+        <v>33.36517461666528</v>
       </c>
     </row>
     <row r="42">
@@ -2309,10 +2309,10 @@
         <v>45352</v>
       </c>
       <c r="B42" t="n">
-        <v>81831.5078125</v>
+        <v>83201.5421875</v>
       </c>
       <c r="C42" t="n">
-        <v>457.8981567382813</v>
+        <v>480.2621978759765</v>
       </c>
       <c r="D42" t="n">
         <v>20</v>
@@ -2331,36 +2331,36 @@
         <v>7264</v>
       </c>
       <c r="H42" t="n">
-        <v>11.26535074511288</v>
+        <v>11.45395679893998</v>
       </c>
       <c r="I42" t="n">
-        <v>63.03664052013784</v>
+        <v>0.06611539067675888</v>
       </c>
       <c r="J42" t="n">
-        <v>28.2896142822082</v>
+        <v>29.67129727932594</v>
       </c>
       <c r="K42" t="n">
-        <v>34123.7387578125</v>
+        <v>34695.0430921875</v>
       </c>
       <c r="L42" t="n">
-        <v>595.2676037597656</v>
+        <v>624.3408572387696</v>
       </c>
       <c r="M42" t="n">
-        <v>59.05811461691725</v>
+        <v>60.07937565266382</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B43" t="n">
-        <v>81683.39453125</v>
+        <v>78647.11484374999</v>
       </c>
       <c r="C43" t="n">
-        <v>462.8257019042969</v>
+        <v>480.6414123535156</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2376,36 +2376,36 @@
         <v>7264</v>
       </c>
       <c r="H43" t="n">
-        <v>11.24496070088794</v>
+        <v>10.82697065580259</v>
       </c>
       <c r="I43" t="n">
-        <v>63.71499200224351</v>
+        <v>0.06616759531298398</v>
       </c>
       <c r="J43" t="n">
-        <v>28.59404519125075</v>
+        <v>28.28069114422544</v>
       </c>
       <c r="K43" t="n">
-        <v>34061.97551953125</v>
+        <v>32795.84688984375</v>
       </c>
       <c r="L43" t="n">
-        <v>601.6734124755859</v>
+        <v>624.8338360595703</v>
       </c>
       <c r="M43" t="n">
-        <v>58.96394989958274</v>
+        <v>56.84962214444013</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B44" t="n">
-        <v>77203.04453124999</v>
+        <v>81387.17265625</v>
       </c>
       <c r="C44" t="n">
-        <v>439.7035522460938</v>
+        <v>430.9852264404297</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2421,36 +2421,36 @@
         <v>7264</v>
       </c>
       <c r="H44" t="n">
-        <v>10.62817242996283</v>
+        <v>11.20418125774367</v>
       </c>
       <c r="I44" t="n">
-        <v>60.53187668586092</v>
+        <v>0.05933166663552171</v>
       </c>
       <c r="J44" t="n">
-        <v>27.16552514682539</v>
+        <v>25.35894694758651</v>
       </c>
       <c r="K44" t="n">
-        <v>32193.66956953124</v>
+        <v>33938.45099765625</v>
       </c>
       <c r="L44" t="n">
-        <v>571.6146179199219</v>
+        <v>560.2807943725586</v>
       </c>
       <c r="M44" t="n">
-        <v>55.73477215465817</v>
+        <v>58.68342069164156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B45" t="n">
-        <v>79202.55</v>
+        <v>79017.41953124999</v>
       </c>
       <c r="C45" t="n">
-        <v>441.9776184082031</v>
+        <v>420.3716033935547</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2466,36 +2466,36 @@
         <v>7264</v>
       </c>
       <c r="H45" t="n">
-        <v>10.90343474669604</v>
+        <v>10.87794872401569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.84493645487377</v>
+        <v>0.05787054011475147</v>
       </c>
       <c r="J45" t="n">
-        <v>27.30602026267506</v>
+        <v>27.33807286550519</v>
       </c>
       <c r="K45" t="n">
-        <v>33027.46335</v>
+        <v>32950.26394453125</v>
       </c>
       <c r="L45" t="n">
-        <v>574.570903930664</v>
+        <v>546.4830844116211</v>
       </c>
       <c r="M45" t="n">
-        <v>57.15811016200838</v>
+        <v>56.97901330260319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B46" t="n">
-        <v>78165.7734375</v>
+        <v>79980.140625</v>
       </c>
       <c r="C46" t="n">
-        <v>422.6459289550781</v>
+        <v>393.0798004150391</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2511,36 +2511,36 @@
         <v>7264</v>
       </c>
       <c r="H46" t="n">
-        <v>10.76070669569108</v>
+        <v>11.01048191423458</v>
       </c>
       <c r="I46" t="n">
-        <v>58.18363559403608</v>
+        <v>0.05411340864744481</v>
       </c>
       <c r="J46" t="n">
-        <v>26.11168036415278</v>
+        <v>21.11742776485651</v>
       </c>
       <c r="K46" t="n">
-        <v>32595.1275234375</v>
+        <v>33351.718640625</v>
       </c>
       <c r="L46" t="n">
-        <v>549.4397076416016</v>
+        <v>511.0037405395508</v>
       </c>
       <c r="M46" t="n">
-        <v>56.37994446257376</v>
+        <v>57.60154881163771</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B47" t="n">
-        <v>80128.22421874999</v>
+        <v>81461.25</v>
       </c>
       <c r="C47" t="n">
-        <v>416.9602966308594</v>
+        <v>421.1298156738281</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2556,36 +2556,36 @@
         <v>7264</v>
       </c>
       <c r="H47" t="n">
-        <v>11.03086787152395</v>
+        <v>11.21437912995595</v>
       </c>
       <c r="I47" t="n">
-        <v>57.40092189301478</v>
+        <v>0.05797491955862172</v>
       </c>
       <c r="J47" t="n">
-        <v>25.76041372759688</v>
+        <v>24.7790596952065</v>
       </c>
       <c r="K47" t="n">
-        <v>33413.46949921874</v>
+        <v>33969.34125</v>
       </c>
       <c r="L47" t="n">
-        <v>542.0483856201172</v>
+        <v>547.4687603759766</v>
       </c>
       <c r="M47" t="n">
-        <v>57.75939686278466</v>
+        <v>58.7141723059043</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B48" t="n">
-        <v>76684.65625</v>
+        <v>78387.93984375001</v>
       </c>
       <c r="C48" t="n">
-        <v>377.9176086425781</v>
+        <v>412.0324096679688</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2601,36 +2601,36 @@
         <v>7264</v>
       </c>
       <c r="H48" t="n">
-        <v>10.55680840446035</v>
+        <v>10.79129127804928</v>
       </c>
       <c r="I48" t="n">
-        <v>52.02610251136814</v>
+        <v>0.05672252335737455</v>
       </c>
       <c r="J48" t="n">
-        <v>23.34829966363838</v>
+        <v>24.24377304937727</v>
       </c>
       <c r="K48" t="n">
-        <v>31977.50165625</v>
+        <v>32687.77091484375</v>
       </c>
       <c r="L48" t="n">
-        <v>491.2928912353515</v>
+        <v>535.6421325683594</v>
       </c>
       <c r="M48" t="n">
-        <v>55.23043401325301</v>
+        <v>56.51406365969495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B49" t="n">
-        <v>76573.58125</v>
+        <v>81720.43046875</v>
       </c>
       <c r="C49" t="n">
-        <v>424.1622497558594</v>
+        <v>416.2019287109375</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2646,36 +2646,36 @@
         <v>7264</v>
       </c>
       <c r="H49" t="n">
-        <v>10.54151724256608</v>
+        <v>11.2500592605658</v>
       </c>
       <c r="I49" t="n">
-        <v>58.39238019766787</v>
+        <v>0.05729652102298149</v>
       </c>
       <c r="J49" t="n">
-        <v>26.20536086919729</v>
+        <v>23.37596423110553</v>
       </c>
       <c r="K49" t="n">
-        <v>31931.18338125</v>
+        <v>34077.41950546874</v>
       </c>
       <c r="L49" t="n">
-        <v>551.4109246826172</v>
+        <v>541.0625073242188</v>
       </c>
       <c r="M49" t="n">
-        <v>55.25390783354547</v>
+        <v>58.88711955875887</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B50" t="n">
-        <v>79609.8359375</v>
+        <v>78795.25078125</v>
       </c>
       <c r="C50" t="n">
-        <v>398.3865600585938</v>
+        <v>390.4262390136719</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2691,36 +2691,36 @@
         <v>7264</v>
       </c>
       <c r="H50" t="n">
-        <v>10.95950384602148</v>
+        <v>10.84736381900468</v>
       </c>
       <c r="I50" t="n">
-        <v>54.84396476577557</v>
+        <v>0.05374810559108919</v>
       </c>
       <c r="J50" t="n">
-        <v>24.6129012607383</v>
+        <v>22.97247718643533</v>
       </c>
       <c r="K50" t="n">
-        <v>33197.3015859375</v>
+        <v>32857.61957578125</v>
       </c>
       <c r="L50" t="n">
-        <v>517.902528076172</v>
+        <v>507.5541107177735</v>
       </c>
       <c r="M50" t="n">
-        <v>57.35061563000358</v>
+        <v>56.7552029360951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B51" t="n">
-        <v>78017.64921875</v>
+        <v>80350.390625</v>
       </c>
       <c r="C51" t="n">
-        <v>421.1298156738281</v>
+        <v>415.8230560302734</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2736,22 +2736,22 @@
         <v>7264</v>
       </c>
       <c r="H51" t="n">
-        <v>10.74031514575303</v>
+        <v>11.06145245388216</v>
       </c>
       <c r="I51" t="n">
-        <v>57.97491955862171</v>
+        <v>0.05724436344029095</v>
       </c>
       <c r="J51" t="n">
-        <v>26.01801267996682</v>
+        <v>24.46681271315571</v>
       </c>
       <c r="K51" t="n">
-        <v>32533.35972421875</v>
+        <v>33506.112890625</v>
       </c>
       <c r="L51" t="n">
-        <v>547.4687603759766</v>
+        <v>540.5699728393555</v>
       </c>
       <c r="M51" t="n">
-        <v>56.27152286328572</v>
+        <v>57.91447133987776</v>
       </c>
     </row>
     <row r="52">
@@ -2759,10 +2759,10 @@
         <v>45292</v>
       </c>
       <c r="B52" t="n">
-        <v>780741.925</v>
+        <v>744945.875</v>
       </c>
       <c r="C52" t="n">
-        <v>5586.05322265625</v>
+        <v>5131.42919921875</v>
       </c>
       <c r="D52" t="n">
         <v>22</v>
@@ -2781,36 +2781,36 @@
         <v>74215</v>
       </c>
       <c r="H52" t="n">
-        <v>10.52000168429563</v>
+        <v>10.03767264030183</v>
       </c>
       <c r="I52" t="n">
-        <v>75.26852014628108</v>
+        <v>0.06914275010737385</v>
       </c>
       <c r="J52" t="n">
-        <v>30.70822107963574</v>
+        <v>28.20901556487093</v>
       </c>
       <c r="K52" t="n">
-        <v>325569.382725</v>
+        <v>310642.429875</v>
       </c>
       <c r="L52" t="n">
-        <v>7261.869189453125</v>
+        <v>6670.857958984375</v>
       </c>
       <c r="M52" t="n">
-        <v>5.423812615960059</v>
+        <v>5.170932128116644</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B53" t="n">
-        <v>751718.06875</v>
+        <v>717857.2375</v>
       </c>
       <c r="C53" t="n">
-        <v>5360.992236328125</v>
+        <v>5342.98583984375</v>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2826,36 +2826,36 @@
         <v>74215</v>
       </c>
       <c r="H53" t="n">
-        <v>10.1289236508792</v>
+        <v>9.672670450717511</v>
       </c>
       <c r="I53" t="n">
-        <v>72.23596626461126</v>
+        <v>0.07199334150567607</v>
       </c>
       <c r="J53" t="n">
-        <v>29.47099288844451</v>
+        <v>32.30920691962048</v>
       </c>
       <c r="K53" t="n">
-        <v>313466.43466875</v>
+        <v>299346.4680375</v>
       </c>
       <c r="L53" t="n">
-        <v>6969.289907226563</v>
+        <v>6945.881591796875</v>
       </c>
       <c r="M53" t="n">
-        <v>5.221815305992342</v>
+        <v>4.991335100101785</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B54" t="n">
-        <v>767681.4</v>
+        <v>703344.9875</v>
       </c>
       <c r="C54" t="n">
-        <v>4865.853515625</v>
+        <v>5374.49677734375</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2871,36 +2871,36 @@
         <v>74215</v>
       </c>
       <c r="H54" t="n">
-        <v>10.34401940308563</v>
+        <v>9.477127096948056</v>
       </c>
       <c r="I54" t="n">
-        <v>65.56428640604999</v>
+        <v>0.07241793137969077</v>
       </c>
       <c r="J54" t="n">
-        <v>26.74906585080532</v>
+        <v>32.4997545703978</v>
       </c>
       <c r="K54" t="n">
-        <v>320123.1438</v>
+        <v>293294.8597875</v>
       </c>
       <c r="L54" t="n">
-        <v>6325.6095703125</v>
+        <v>6986.845810546875</v>
       </c>
       <c r="M54" t="n">
-        <v>5.319803524488221</v>
+        <v>4.893385743665998</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B55" t="n">
-        <v>738657.5875</v>
+        <v>694154.33125</v>
       </c>
       <c r="C55" t="n">
-        <v>4942.37373046875</v>
+        <v>5176.43896484375</v>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2916,36 +2916,36 @@
         <v>74215</v>
       </c>
       <c r="H55" t="n">
-        <v>9.952941959172675</v>
+        <v>9.353288839857173</v>
       </c>
       <c r="I55" t="n">
-        <v>66.59534771230547</v>
+        <v>0.06974922811889443</v>
       </c>
       <c r="J55" t="n">
-        <v>27.16972057442174</v>
+        <v>29.8115167802011</v>
       </c>
       <c r="K55" t="n">
-        <v>308020.2139875</v>
+        <v>289462.35613125</v>
       </c>
       <c r="L55" t="n">
-        <v>6425.085849609375</v>
+        <v>6729.370654296875</v>
       </c>
       <c r="M55" t="n">
-        <v>5.124195442813215</v>
+        <v>4.826735516096776</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45292</v>
+        <v>45413</v>
       </c>
       <c r="B56" t="n">
-        <v>724145.525</v>
+        <v>679158.8</v>
       </c>
       <c r="C56" t="n">
-        <v>5014.396826171875</v>
+        <v>4847.8498046875</v>
       </c>
       <c r="D56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2961,36 +2961,36 @@
         <v>74215</v>
       </c>
       <c r="H56" t="n">
-        <v>9.757401131846661</v>
+        <v>9.151233578117631</v>
       </c>
       <c r="I56" t="n">
-        <v>67.56581319371926</v>
+        <v>0.06532169783315368</v>
       </c>
       <c r="J56" t="n">
-        <v>27.56565327637327</v>
+        <v>27.91914611219576</v>
       </c>
       <c r="K56" t="n">
-        <v>301968.683925</v>
+        <v>283209.2196</v>
       </c>
       <c r="L56" t="n">
-        <v>6518.715874023437</v>
+        <v>6302.20474609375</v>
       </c>
       <c r="M56" t="n">
-        <v>5.027105601623946</v>
+        <v>4.717873417237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45292</v>
+        <v>45444</v>
       </c>
       <c r="B57" t="n">
-        <v>735271.25</v>
+        <v>669484.175</v>
       </c>
       <c r="C57" t="n">
-        <v>5387.99970703125</v>
+        <v>5257.4640625</v>
       </c>
       <c r="D57" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3006,36 +3006,36 @@
         <v>74215</v>
       </c>
       <c r="H57" t="n">
-        <v>9.907313211614902</v>
+        <v>9.020874149430709</v>
       </c>
       <c r="I57" t="n">
-        <v>72.59987478314694</v>
+        <v>0.07084098986054033</v>
       </c>
       <c r="J57" t="n">
-        <v>29.61946110886704</v>
+        <v>33.46531998546706</v>
       </c>
       <c r="K57" t="n">
-        <v>306608.11125</v>
+        <v>279174.900975</v>
       </c>
       <c r="L57" t="n">
-        <v>7004.399619140626</v>
+        <v>6834.70328125</v>
       </c>
       <c r="M57" t="n">
-        <v>5.110624327465961</v>
+        <v>4.660807814554357</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="B58" t="n">
-        <v>692219.28125</v>
+        <v>660292.875</v>
       </c>
       <c r="C58" t="n">
-        <v>5225.953466796875</v>
+        <v>4937.87470703125</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3051,36 +3051,36 @@
         <v>74215</v>
       </c>
       <c r="H58" t="n">
-        <v>9.32721526982416</v>
+        <v>8.897027218217341</v>
       </c>
       <c r="I58" t="n">
-        <v>70.41640459202149</v>
+        <v>0.06653472622827258</v>
       </c>
       <c r="J58" t="n">
-        <v>28.72864400206642</v>
+        <v>25.96477121103321</v>
       </c>
       <c r="K58" t="n">
-        <v>288655.44028125</v>
+        <v>275342.128875</v>
       </c>
       <c r="L58" t="n">
-        <v>6793.739506835937</v>
+        <v>6419.237119140626</v>
       </c>
       <c r="M58" t="n">
-        <v>4.814634982419106</v>
+        <v>4.591578593592993</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45292</v>
+        <v>45505</v>
       </c>
       <c r="B59" t="n">
-        <v>690284.525</v>
+        <v>650618.26875</v>
       </c>
       <c r="C59" t="n">
-        <v>5027.899609375</v>
+        <v>4937.87470703125</v>
       </c>
       <c r="D59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3096,36 +3096,36 @@
         <v>74215</v>
       </c>
       <c r="H59" t="n">
-        <v>9.301145657885872</v>
+        <v>8.766668042174762</v>
       </c>
       <c r="I59" t="n">
-        <v>67.7477546233915</v>
+        <v>0.06653472622827258</v>
       </c>
       <c r="J59" t="n">
-        <v>27.63988215233711</v>
+        <v>28.43760656446494</v>
       </c>
       <c r="K59" t="n">
-        <v>287848.646925</v>
+        <v>271307.81806875</v>
       </c>
       <c r="L59" t="n">
-        <v>6536.269492187501</v>
+        <v>6419.237119140626</v>
       </c>
       <c r="M59" t="n">
-        <v>4.797291764002626</v>
+        <v>4.52583553093953</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45292</v>
+        <v>45536</v>
       </c>
       <c r="B60" t="n">
-        <v>700442.61875</v>
+        <v>642394.93125</v>
       </c>
       <c r="C60" t="n">
-        <v>5329.481298828125</v>
+        <v>5270.9669921875</v>
       </c>
       <c r="D60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3141,33 +3141,33 @@
         <v>74215</v>
       </c>
       <c r="H60" t="n">
-        <v>9.438019520986323</v>
+        <v>8.6558637910126</v>
       </c>
       <c r="I60" t="n">
-        <v>71.81137639059658</v>
+        <v>0.0710229332639965</v>
       </c>
       <c r="J60" t="n">
-        <v>29.29776775137422</v>
+        <v>30.35591108147586</v>
       </c>
       <c r="K60" t="n">
-        <v>292084.57201875</v>
+        <v>267878.68633125</v>
       </c>
       <c r="L60" t="n">
-        <v>6928.325688476562</v>
+        <v>6852.257089843751</v>
       </c>
       <c r="M60" t="n">
-        <v>4.872709271111582</v>
+        <v>4.4770109427853</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45292</v>
+        <v>45566</v>
       </c>
       <c r="B61" t="n">
-        <v>720759.625</v>
+        <v>624496.825</v>
       </c>
       <c r="C61" t="n">
-        <v>5320.4818359375</v>
+        <v>4897.364453125</v>
       </c>
       <c r="D61" t="n">
         <v>22</v>
@@ -3186,36 +3186,36 @@
         <v>74215</v>
       </c>
       <c r="H61" t="n">
-        <v>9.711778279323587</v>
+        <v>8.414698174223538</v>
       </c>
       <c r="I61" t="n">
-        <v>71.69011434261941</v>
+        <v>0.06598887628006468</v>
       </c>
       <c r="J61" t="n">
-        <v>29.2482949867893</v>
+        <v>26.92229098787561</v>
       </c>
       <c r="K61" t="n">
-        <v>300556.763625</v>
+        <v>260415.176025</v>
       </c>
       <c r="L61" t="n">
-        <v>6916.626386718751</v>
+        <v>6366.573789062501</v>
       </c>
       <c r="M61" t="n">
-        <v>5.010581314780523</v>
+        <v>4.347471014294428</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45292</v>
+        <v>45597</v>
       </c>
       <c r="B62" t="n">
-        <v>677223.5625</v>
+        <v>648199.6875</v>
       </c>
       <c r="C62" t="n">
-        <v>5041.404296875</v>
+        <v>5072.9111328125</v>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3231,36 +3231,36 @@
         <v>74215</v>
       </c>
       <c r="H62" t="n">
-        <v>9.125157481641178</v>
+        <v>8.734079195580408</v>
       </c>
       <c r="I62" t="n">
-        <v>67.92972171225493</v>
+        <v>0.06835425632031934</v>
       </c>
       <c r="J62" t="n">
-        <v>27.7141214967958</v>
+        <v>29.21529189997389</v>
       </c>
       <c r="K62" t="n">
-        <v>282402.2255625</v>
+        <v>270299.2696875</v>
       </c>
       <c r="L62" t="n">
-        <v>6553.8255859375</v>
+        <v>6594.78447265625</v>
       </c>
       <c r="M62" t="n">
-        <v>4.708823064727469</v>
+        <v>4.512260959869818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45292</v>
+        <v>45627</v>
       </c>
       <c r="B63" t="n">
-        <v>732368.8625</v>
+        <v>652553.50625</v>
       </c>
       <c r="C63" t="n">
-        <v>5149.431494140625</v>
+        <v>4946.877197265625</v>
       </c>
       <c r="D63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3276,22 +3276,22 @@
         <v>74215</v>
       </c>
       <c r="H63" t="n">
-        <v>9.868205383008826</v>
+        <v>8.792744138651216</v>
       </c>
       <c r="I63" t="n">
-        <v>69.38531960035876</v>
+        <v>0.06665602906778448</v>
       </c>
       <c r="J63" t="n">
-        <v>28.30797961522397</v>
+        <v>28.48945260969186</v>
       </c>
       <c r="K63" t="n">
-        <v>305397.8156625</v>
+        <v>272114.81210625</v>
       </c>
       <c r="L63" t="n">
-        <v>6694.260942382813</v>
+        <v>6430.940356445312</v>
       </c>
       <c r="M63" t="n">
-        <v>5.085847355661826</v>
+        <v>4.539177008286369</v>
       </c>
     </row>
     <row r="64">
@@ -3299,10 +3299,10 @@
         <v>45292</v>
       </c>
       <c r="B64" t="n">
-        <v>361311.3125</v>
+        <v>349498.728125</v>
       </c>
       <c r="C64" t="n">
-        <v>1793.68017578125</v>
+        <v>1740.6015625</v>
       </c>
       <c r="D64" t="n">
         <v>22</v>
@@ -3321,36 +3321,36 @@
         <v>67896</v>
       </c>
       <c r="H64" t="n">
-        <v>5.32154048102981</v>
+        <v>5.14755991700542</v>
       </c>
       <c r="I64" t="n">
-        <v>26.41805372601111</v>
+        <v>0.02563629024537528</v>
       </c>
       <c r="J64" t="n">
-        <v>10.77809730728613</v>
+        <v>10.45915167438814</v>
       </c>
       <c r="K64" t="n">
-        <v>150666.8173125</v>
+        <v>145740.969628125</v>
       </c>
       <c r="L64" t="n">
-        <v>2331.784228515625</v>
+        <v>2262.78203125</v>
       </c>
       <c r="M64" t="n">
-        <v>2.97894884054894</v>
+        <v>2.881696956454819</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B65" t="n">
-        <v>329725.228125</v>
+        <v>354377.71875</v>
       </c>
       <c r="C65" t="n">
-        <v>1599.670141601563</v>
+        <v>1654.577490234375</v>
       </c>
       <c r="D65" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3366,36 +3366,36 @@
         <v>67896</v>
       </c>
       <c r="H65" t="n">
-        <v>4.856327738379286</v>
+        <v>5.219419682308236</v>
       </c>
       <c r="I65" t="n">
-        <v>23.56059475670971</v>
+        <v>0.02436929259800835</v>
       </c>
       <c r="J65" t="n">
-        <v>9.612304734444759</v>
+        <v>10.93646301959399</v>
       </c>
       <c r="K65" t="n">
-        <v>137495.420128125</v>
+        <v>147775.50871875</v>
       </c>
       <c r="L65" t="n">
-        <v>2079.571184082031</v>
+        <v>2150.950737304688</v>
       </c>
       <c r="M65" t="n">
-        <v>2.717585352750195</v>
+        <v>2.919132907528515</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B66" t="n">
-        <v>345133.15625</v>
+        <v>331266</v>
       </c>
       <c r="C66" t="n">
-        <v>1599.670141601563</v>
+        <v>1636.275769042969</v>
       </c>
       <c r="D66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3411,36 +3411,36 @@
         <v>67896</v>
       </c>
       <c r="H66" t="n">
-        <v>5.083261992606339</v>
+        <v>4.879020855425946</v>
       </c>
       <c r="I66" t="n">
-        <v>23.56059475670971</v>
+        <v>0.02409973737838707</v>
       </c>
       <c r="J66" t="n">
-        <v>9.612304734444759</v>
+        <v>10.815491896642</v>
       </c>
       <c r="K66" t="n">
-        <v>143920.52615625</v>
+        <v>138137.922</v>
       </c>
       <c r="L66" t="n">
-        <v>2079.571184082031</v>
+        <v>2127.158499755859</v>
       </c>
       <c r="M66" t="n">
-        <v>2.842684941636017</v>
+        <v>2.731021687229191</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B67" t="n">
-        <v>340767.446875</v>
+        <v>336401.90625</v>
       </c>
       <c r="C67" t="n">
-        <v>1599.670141601563</v>
+        <v>1605.160632324219</v>
       </c>
       <c r="D67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3456,36 +3456,36 @@
         <v>67896</v>
       </c>
       <c r="H67" t="n">
-        <v>5.018962043051137</v>
+        <v>4.95466457891481</v>
       </c>
       <c r="I67" t="n">
-        <v>23.56059475670971</v>
+        <v>0.0236414609450368</v>
       </c>
       <c r="J67" t="n">
-        <v>9.612304734444759</v>
+        <v>10.10459654793675</v>
       </c>
       <c r="K67" t="n">
-        <v>142100.025346875</v>
+        <v>140279.59490625</v>
       </c>
       <c r="L67" t="n">
-        <v>2079.571184082031</v>
+        <v>2086.708822021485</v>
       </c>
       <c r="M67" t="n">
-        <v>2.807239004740627</v>
+        <v>2.771933410848071</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45292</v>
+        <v>45413</v>
       </c>
       <c r="B68" t="n">
-        <v>355405.071875</v>
+        <v>331266</v>
       </c>
       <c r="C68" t="n">
-        <v>1541.101037597656</v>
+        <v>1499.004223632812</v>
       </c>
       <c r="D68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3501,36 +3501,36 @@
         <v>67896</v>
       </c>
       <c r="H68" t="n">
-        <v>5.234550958451161</v>
+        <v>4.879020855425946</v>
       </c>
       <c r="I68" t="n">
-        <v>22.69796508774679</v>
+        <v>0.02207794602970444</v>
       </c>
       <c r="J68" t="n">
-        <v>9.260367131142814</v>
+        <v>9.436334656133836</v>
       </c>
       <c r="K68" t="n">
-        <v>148203.914971875</v>
+        <v>138137.922</v>
       </c>
       <c r="L68" t="n">
-        <v>2003.431348876953</v>
+        <v>1948.705490722656</v>
       </c>
       <c r="M68" t="n">
-        <v>2.924601896078002</v>
+        <v>2.727547130082933</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45292</v>
+        <v>45444</v>
       </c>
       <c r="B69" t="n">
-        <v>342565.134375</v>
+        <v>320223.853125</v>
       </c>
       <c r="C69" t="n">
-        <v>1464.229125976562</v>
+        <v>1647.257446289062</v>
       </c>
       <c r="D69" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3546,36 +3546,36 @@
         <v>67896</v>
       </c>
       <c r="H69" t="n">
-        <v>5.045439118283846</v>
+        <v>4.71638760935843</v>
       </c>
       <c r="I69" t="n">
-        <v>21.56576419784026</v>
+        <v>0.02426148000307916</v>
       </c>
       <c r="J69" t="n">
-        <v>8.798449251447025</v>
+        <v>11.46113561121069</v>
       </c>
       <c r="K69" t="n">
-        <v>142849.661034375</v>
+        <v>133533.346753125</v>
       </c>
       <c r="L69" t="n">
-        <v>1903.497863769531</v>
+        <v>2141.434680175782</v>
       </c>
       <c r="M69" t="n">
-        <v>2.818406511708051</v>
+        <v>2.64164658220169</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="B70" t="n">
-        <v>336401.90625</v>
+        <v>341794.70625</v>
       </c>
       <c r="C70" t="n">
-        <v>1531.949328613281</v>
+        <v>1612.481286621094</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3591,36 +3591,36 @@
         <v>67896</v>
       </c>
       <c r="H70" t="n">
-        <v>4.95466457891481</v>
+        <v>5.034091938405797</v>
       </c>
       <c r="I70" t="n">
-        <v>22.56317498252152</v>
+        <v>0.02374928252947292</v>
       </c>
       <c r="J70" t="n">
-        <v>9.205375159166207</v>
+        <v>9.268012694428458</v>
       </c>
       <c r="K70" t="n">
-        <v>140279.59490625</v>
+        <v>142528.39250625</v>
       </c>
       <c r="L70" t="n">
-        <v>1991.534127197266</v>
+        <v>2096.225672607422</v>
       </c>
       <c r="M70" t="n">
-        <v>2.770080318441078</v>
+        <v>2.815903768396499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45292</v>
+        <v>45505</v>
       </c>
       <c r="B71" t="n">
-        <v>338970</v>
+        <v>338199.571875</v>
       </c>
       <c r="C71" t="n">
-        <v>1367.223254394531</v>
+        <v>1458.737939453125</v>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3636,36 +3636,36 @@
         <v>67896</v>
       </c>
       <c r="H71" t="n">
-        <v>4.99248851184164</v>
+        <v>4.981141331963592</v>
       </c>
       <c r="I71" t="n">
-        <v>20.13702212787986</v>
+        <v>0.02148488776147527</v>
       </c>
       <c r="J71" t="n">
-        <v>8.215547830443226</v>
+        <v>9.182855628598023</v>
       </c>
       <c r="K71" t="n">
-        <v>141350.49</v>
+        <v>141029.221471875</v>
       </c>
       <c r="L71" t="n">
-        <v>1777.390230712891</v>
+        <v>1896.359321289062</v>
       </c>
       <c r="M71" t="n">
-        <v>2.786761634218002</v>
+        <v>2.782822776811072</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45292</v>
+        <v>45536</v>
       </c>
       <c r="B72" t="n">
-        <v>340767.446875</v>
+        <v>325359.759375</v>
       </c>
       <c r="C72" t="n">
-        <v>1572.21552734375</v>
+        <v>1513.645983886719</v>
       </c>
       <c r="D72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3681,33 +3681,33 @@
         <v>67896</v>
       </c>
       <c r="H72" t="n">
-        <v>5.018962043051137</v>
+        <v>4.792031332847296</v>
       </c>
       <c r="I72" t="n">
-        <v>23.15623199221972</v>
+        <v>0.02229359585081181</v>
       </c>
       <c r="J72" t="n">
-        <v>9.447331899264807</v>
+        <v>9.528505543668693</v>
       </c>
       <c r="K72" t="n">
-        <v>142100.025346875</v>
+        <v>135675.019659375</v>
       </c>
       <c r="L72" t="n">
-        <v>2043.880185546875</v>
+        <v>1967.739779052735</v>
       </c>
       <c r="M72" t="n">
-        <v>2.806544085586899</v>
+        <v>2.67996396378264</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45292</v>
+        <v>45566</v>
       </c>
       <c r="B73" t="n">
-        <v>344105.90625</v>
+        <v>333063.665625</v>
       </c>
       <c r="C73" t="n">
-        <v>1412.980065917969</v>
+        <v>1586.857287597656</v>
       </c>
       <c r="D73" t="n">
         <v>22</v>
@@ -3726,36 +3726,36 @@
         <v>67896</v>
       </c>
       <c r="H73" t="n">
-        <v>5.068132235330506</v>
+        <v>4.905497608474726</v>
       </c>
       <c r="I73" t="n">
-        <v>20.81094712380654</v>
+        <v>0.02337188181332709</v>
       </c>
       <c r="J73" t="n">
-        <v>8.490497274457654</v>
+        <v>9.535313201002626</v>
       </c>
       <c r="K73" t="n">
-        <v>143492.16290625</v>
+        <v>138887.548565625</v>
       </c>
       <c r="L73" t="n">
-        <v>1836.874085693359</v>
+        <v>2062.914473876953</v>
       </c>
       <c r="M73" t="n">
-        <v>2.829619106872588</v>
+        <v>2.744366381243025</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45292</v>
+        <v>45597</v>
       </c>
       <c r="B74" t="n">
-        <v>343335.46875</v>
+        <v>325616.653125</v>
       </c>
       <c r="C74" t="n">
-        <v>1478.871447753906</v>
+        <v>1398.337744140625</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3771,36 +3771,36 @@
         <v>67896</v>
       </c>
       <c r="H74" t="n">
-        <v>5.05678491737363</v>
+        <v>4.795814968849417</v>
       </c>
       <c r="I74" t="n">
-        <v>21.78142228929401</v>
+        <v>0.02059528903235279</v>
       </c>
       <c r="J74" t="n">
-        <v>8.886433927339462</v>
+        <v>8.802632246115943</v>
       </c>
       <c r="K74" t="n">
-        <v>143170.89046875</v>
+        <v>135782.144353125</v>
       </c>
       <c r="L74" t="n">
-        <v>1922.532882080078</v>
+        <v>1817.839067382813</v>
       </c>
       <c r="M74" t="n">
-        <v>2.825031607536368</v>
+        <v>2.679131096242006</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45292</v>
+        <v>45627</v>
       </c>
       <c r="B75" t="n">
-        <v>344105.90625</v>
+        <v>325359.759375</v>
       </c>
       <c r="C75" t="n">
-        <v>1372.713745117188</v>
+        <v>1508.154760742188</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3816,22 +3816,22 @@
         <v>67896</v>
       </c>
       <c r="H75" t="n">
-        <v>5.068132235330506</v>
+        <v>4.792031332847296</v>
       </c>
       <c r="I75" t="n">
-        <v>20.21788831620696</v>
+        <v>0.02221271887507641</v>
       </c>
       <c r="J75" t="n">
-        <v>8.248539800847183</v>
+        <v>9.493937916408962</v>
       </c>
       <c r="K75" t="n">
-        <v>143492.16290625</v>
+        <v>135675.019659375</v>
       </c>
       <c r="L75" t="n">
-        <v>1784.527868652344</v>
+        <v>1960.601188964844</v>
       </c>
       <c r="M75" t="n">
-        <v>2.82859990342242</v>
+        <v>2.67982497235101</v>
       </c>
     </row>
     <row r="76">
@@ -3839,10 +3839,10 @@
         <v>45352</v>
       </c>
       <c r="B76" t="n">
-        <v>715858.31875</v>
+        <v>725111.6</v>
       </c>
       <c r="C76" t="n">
-        <v>7601.068896484375</v>
+        <v>6925.144140625</v>
       </c>
       <c r="D76" t="n">
         <v>20</v>
@@ -3861,36 +3861,36 @@
         <v>105307</v>
       </c>
       <c r="H76" t="n">
-        <v>6.797822734955891</v>
+        <v>6.885692309153238</v>
       </c>
       <c r="I76" t="n">
-        <v>72.18009150848827</v>
+        <v>0.06576147967965092</v>
       </c>
       <c r="J76" t="n">
-        <v>32.3930166769801</v>
+        <v>29.51246892940431</v>
       </c>
       <c r="K76" t="n">
-        <v>298512.91891875</v>
+        <v>302371.5372</v>
       </c>
       <c r="L76" t="n">
-        <v>9881.389565429688</v>
+        <v>9002.687382812499</v>
       </c>
       <c r="M76" t="n">
-        <v>2.496064680093423</v>
+        <v>2.520183359066451</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B77" t="n">
-        <v>731840.625</v>
+        <v>746982.71875</v>
       </c>
       <c r="C77" t="n">
-        <v>7330.69970703125</v>
+        <v>7478.173876953125</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3906,36 +3906,36 @@
         <v>105307</v>
       </c>
       <c r="H77" t="n">
-        <v>6.949591432668294</v>
+        <v>7.093381434757424</v>
       </c>
       <c r="I77" t="n">
-        <v>69.61265354659471</v>
+        <v>0.07101307488536493</v>
       </c>
       <c r="J77" t="n">
-        <v>31.24080061603275</v>
+        <v>30.35169751197944</v>
       </c>
       <c r="K77" t="n">
-        <v>305177.540625</v>
+        <v>311491.79371875</v>
       </c>
       <c r="L77" t="n">
-        <v>9529.909619140626</v>
+        <v>9721.626040039062</v>
       </c>
       <c r="M77" t="n">
-        <v>2.547161635302859</v>
+        <v>2.59981928905496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B78" t="n">
-        <v>746141.13125</v>
+        <v>718382.06875</v>
       </c>
       <c r="C78" t="n">
-        <v>7355.278857421875</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3951,36 +3951,36 @@
         <v>105307</v>
       </c>
       <c r="H78" t="n">
-        <v>7.085389682072416</v>
+        <v>6.821788378265452</v>
       </c>
       <c r="I78" t="n">
-        <v>69.84605826224158</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J78" t="n">
-        <v>31.34554809817671</v>
+        <v>28.68072393986116</v>
       </c>
       <c r="K78" t="n">
-        <v>311140.85173125</v>
+        <v>299565.32266875</v>
       </c>
       <c r="L78" t="n">
-        <v>9561.862514648437</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M78" t="n">
-        <v>2.595685769214983</v>
+        <v>2.498957616096652</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B79" t="n">
-        <v>705763.975</v>
+        <v>744458.95</v>
       </c>
       <c r="C79" t="n">
-        <v>7416.72470703125</v>
+        <v>7189.36767578125</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3996,36 +3996,36 @@
         <v>105307</v>
       </c>
       <c r="H79" t="n">
-        <v>6.701966393497108</v>
+        <v>7.06941561339702</v>
       </c>
       <c r="I79" t="n">
-        <v>70.42955080888497</v>
+        <v>0.06827055823241807</v>
       </c>
       <c r="J79" t="n">
-        <v>31.60740816788984</v>
+        <v>32.25104676447991</v>
       </c>
       <c r="K79" t="n">
-        <v>294303.577575</v>
+        <v>310439.38215</v>
       </c>
       <c r="L79" t="n">
-        <v>9641.742119140625</v>
+        <v>9346.177978515625</v>
       </c>
       <c r="M79" t="n">
-        <v>2.460055702380665</v>
+        <v>2.588262558294347</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="B80" t="n">
-        <v>695669.38125</v>
+        <v>728475.85625</v>
       </c>
       <c r="C80" t="n">
-        <v>7048.039501953125</v>
+        <v>7723.9640625</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4041,36 +4041,36 @@
         <v>105307</v>
       </c>
       <c r="H80" t="n">
-        <v>6.606107678027102</v>
+        <v>6.91763943754926</v>
       </c>
       <c r="I80" t="n">
-        <v>66.92849954849274</v>
+        <v>0.07334710952263382</v>
       </c>
       <c r="J80" t="n">
-        <v>30.03620467542113</v>
+        <v>28.62326225273515</v>
       </c>
       <c r="K80" t="n">
-        <v>290094.13198125</v>
+        <v>303774.43205625</v>
       </c>
       <c r="L80" t="n">
-        <v>9162.451352539063</v>
+        <v>10041.15328125</v>
       </c>
       <c r="M80" t="n">
-        <v>2.422106269134416</v>
+        <v>2.539943108787819</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B81" t="n">
-        <v>667910.31875</v>
+        <v>630897.1875</v>
       </c>
       <c r="C81" t="n">
-        <v>7256.96103515625</v>
+        <v>7091.055322265625</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4086,36 +4086,36 @@
         <v>105307</v>
       </c>
       <c r="H81" t="n">
-        <v>6.342506374220137</v>
+        <v>5.99102801808047</v>
       </c>
       <c r="I81" t="n">
-        <v>68.91242780780243</v>
+        <v>0.06733697970947444</v>
       </c>
       <c r="J81" t="n">
-        <v>30.92655296740401</v>
+        <v>28.78049771554773</v>
       </c>
       <c r="K81" t="n">
-        <v>278518.60291875</v>
+        <v>263084.1271875</v>
       </c>
       <c r="L81" t="n">
-        <v>9434.049345703124</v>
+        <v>9218.371918945313</v>
       </c>
       <c r="M81" t="n">
-        <v>2.330615141340702</v>
+        <v>2.203946803238868</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B82" t="n">
-        <v>704081.5625</v>
+        <v>747823.5</v>
       </c>
       <c r="C82" t="n">
-        <v>6986.593310546875</v>
+        <v>6906.708642578125</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4131,36 +4131,36 @@
         <v>105307</v>
       </c>
       <c r="H82" t="n">
-        <v>6.685990128861329</v>
+        <v>7.101365531256231</v>
       </c>
       <c r="I82" t="n">
-        <v>66.34500375613088</v>
+        <v>0.06558641536249371</v>
       </c>
       <c r="J82" t="n">
-        <v>29.77434314909289</v>
+        <v>28.03228902833645</v>
       </c>
       <c r="K82" t="n">
-        <v>293602.0115625</v>
+        <v>311842.3995</v>
       </c>
       <c r="L82" t="n">
-        <v>9082.571303710938</v>
+        <v>8978.721235351562</v>
       </c>
       <c r="M82" t="n">
-        <v>2.449851620850899</v>
+        <v>2.596644121065478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45352</v>
+        <v>45566</v>
       </c>
       <c r="B83" t="n">
-        <v>678845.4625</v>
+        <v>701558.13125</v>
       </c>
       <c r="C83" t="n">
-        <v>7152.499169921875</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4176,36 +4176,36 @@
         <v>105307</v>
       </c>
       <c r="H83" t="n">
-        <v>6.44634699022857</v>
+        <v>6.662027512416079</v>
       </c>
       <c r="I83" t="n">
-        <v>67.92045324548107</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J83" t="n">
-        <v>30.48137413943541</v>
+        <v>27.37705466986747</v>
       </c>
       <c r="K83" t="n">
-        <v>283078.5578625</v>
+        <v>292549.74073125</v>
       </c>
       <c r="L83" t="n">
-        <v>9298.248920898439</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M83" t="n">
-        <v>2.366423116813057</v>
+        <v>2.44217528969586</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45352</v>
+        <v>45597</v>
       </c>
       <c r="B84" t="n">
-        <v>676321.7125</v>
+        <v>788200.90625</v>
       </c>
       <c r="C84" t="n">
-        <v>7293.8296875</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4221,36 +4221,36 @@
         <v>105307</v>
       </c>
       <c r="H84" t="n">
-        <v>6.422381346919009</v>
+        <v>7.484791193842764</v>
       </c>
       <c r="I84" t="n">
-        <v>69.26253418576162</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J84" t="n">
-        <v>31.08367387848815</v>
+        <v>28.68072393986116</v>
       </c>
       <c r="K84" t="n">
-        <v>282026.1541125</v>
+        <v>328679.77790625</v>
       </c>
       <c r="L84" t="n">
-        <v>9481.97859375</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M84" t="n">
-        <v>2.359392290942306</v>
+        <v>2.734602572567088</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="B85" t="n">
-        <v>712493.275</v>
+        <v>718382.06875</v>
       </c>
       <c r="C85" t="n">
-        <v>7054.18681640625</v>
+        <v>6820.68212890625</v>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4266,22 +4266,22 @@
         <v>105307</v>
       </c>
       <c r="H85" t="n">
-        <v>6.765868128424511</v>
+        <v>6.821788378265452</v>
       </c>
       <c r="I85" t="n">
-        <v>66.98687472253744</v>
+        <v>0.06476950372630737</v>
       </c>
       <c r="J85" t="n">
-        <v>30.06240231450461</v>
+        <v>27.68313283540198</v>
       </c>
       <c r="K85" t="n">
-        <v>297109.695675</v>
+        <v>299565.32266875</v>
       </c>
       <c r="L85" t="n">
-        <v>9170.442861328125</v>
+        <v>8866.886767578126</v>
       </c>
       <c r="M85" t="n">
-        <v>2.478953129103765</v>
+        <v>2.496371440709286</v>
       </c>
     </row>
   </sheetData>

--- a/store/clean_data_chronos.xlsx
+++ b/store/clean_data_chronos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,50 +460,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>code_number</t>
+          <t>codes</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>codes</t>
+          <t>code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>gfa</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>gfa</t>
+          <t>EUI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>EUI</t>
+          <t>WEI_Area</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WEI (Area)</t>
+          <t>WEI_People</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>WEI (People)</t>
+          <t>carbon_energy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>carbon_energy</t>
+          <t>carbon_water</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>carbon_water</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>carbon_index</t>
         </is>
@@ -514,47 +509,44 @@
         <v>45352</v>
       </c>
       <c r="B2" t="n">
-        <v>258188.3890625</v>
+        <v>261948.3265625</v>
       </c>
       <c r="C2" t="n">
-        <v>2350.688720703125</v>
+        <v>2272.333520507812</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H2" t="n">
-        <v>34658.327</v>
+        <v>7.55801994027294</v>
       </c>
       <c r="I2" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06556385484238211</v>
       </c>
       <c r="J2" t="n">
-        <v>67.92045324548107</v>
+        <v>29.42377875853246</v>
       </c>
       <c r="K2" t="n">
-        <v>29.02988013279563</v>
+        <v>109232.4521765625</v>
       </c>
       <c r="L2" t="n">
-        <v>345166.2873</v>
+        <v>2954.033576660156</v>
       </c>
       <c r="M2" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.86894532378203</v>
+        <v>8.38280407779496</v>
       </c>
     </row>
     <row r="3">
@@ -562,47 +554,44 @@
         <v>45383</v>
       </c>
       <c r="B3" t="n">
-        <v>282837.603125</v>
+        <v>287015.303125</v>
       </c>
       <c r="C3" t="n">
-        <v>2607.127172851563</v>
+        <v>2326.94580078125</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H3" t="n">
-        <v>34658.327</v>
+        <v>8.281279795328839</v>
       </c>
       <c r="I3" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06713958815095865</v>
       </c>
       <c r="J3" t="n">
-        <v>67.92045324548107</v>
+        <v>28.69613059181508</v>
       </c>
       <c r="K3" t="n">
-        <v>29.02988013279563</v>
+        <v>119685.381403125</v>
       </c>
       <c r="L3" t="n">
-        <v>345166.2873</v>
+        <v>3025.029541015625</v>
       </c>
       <c r="M3" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.86894532378203</v>
+        <v>9.169173330851823</v>
       </c>
     </row>
     <row r="4">
@@ -610,47 +599,44 @@
         <v>45413</v>
       </c>
       <c r="B4" t="n">
-        <v>279912.9375</v>
+        <v>259023.671875</v>
       </c>
       <c r="C4" t="n">
-        <v>2516.900390625</v>
+        <v>2331.694750976562</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H4" t="n">
-        <v>34658.327</v>
+        <v>7.473634600856528</v>
       </c>
       <c r="I4" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06727661006189256</v>
       </c>
       <c r="J4" t="n">
-        <v>67.92045324548107</v>
+        <v>28.75469512517591</v>
       </c>
       <c r="K4" t="n">
-        <v>29.02988013279563</v>
+        <v>108012.871171875</v>
       </c>
       <c r="L4" t="n">
-        <v>345166.2873</v>
+        <v>3031.203176269531</v>
       </c>
       <c r="M4" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.86894532378203</v>
+        <v>8.297440756885933</v>
       </c>
     </row>
     <row r="5">
@@ -658,47 +644,44 @@
         <v>45444</v>
       </c>
       <c r="B5" t="n">
-        <v>279077.50625</v>
+        <v>266126.021875</v>
       </c>
       <c r="C5" t="n">
-        <v>2438.543139648437</v>
+        <v>2512.149951171875</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H5" t="n">
-        <v>34658.327</v>
+        <v>7.678559379828115</v>
       </c>
       <c r="I5" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07248330108870735</v>
       </c>
       <c r="J5" t="n">
-        <v>67.92045324548107</v>
+        <v>34.24114865294519</v>
       </c>
       <c r="K5" t="n">
-        <v>29.02988013279563</v>
+        <v>110974.551121875</v>
       </c>
       <c r="L5" t="n">
-        <v>345166.2873</v>
+        <v>3265.794936523437</v>
       </c>
       <c r="M5" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.86894532378203</v>
+        <v>8.536272728014749</v>
       </c>
     </row>
     <row r="6">
@@ -706,47 +689,44 @@
         <v>45474</v>
       </c>
       <c r="B6" t="n">
-        <v>269050.665625</v>
+        <v>271557.34375</v>
       </c>
       <c r="C6" t="n">
-        <v>2398.17724609375</v>
+        <v>2326.94580078125</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H6" t="n">
-        <v>34658.327</v>
+        <v>7.835269825632381</v>
       </c>
       <c r="I6" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06713958815095865</v>
       </c>
       <c r="J6" t="n">
-        <v>67.92045324548107</v>
+        <v>26.20081488817899</v>
       </c>
       <c r="K6" t="n">
-        <v>29.02988013279563</v>
+        <v>113239.41234375</v>
       </c>
       <c r="L6" t="n">
-        <v>345166.2873</v>
+        <v>3025.029541015625</v>
       </c>
       <c r="M6" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.86894532378203</v>
+        <v>8.687517315392611</v>
       </c>
     </row>
     <row r="7">
@@ -754,47 +734,44 @@
         <v>45505</v>
       </c>
       <c r="B7" t="n">
-        <v>271974.9375</v>
+        <v>254846.140625</v>
       </c>
       <c r="C7" t="n">
-        <v>2455.165234375</v>
+        <v>2184.47998046875</v>
       </c>
       <c r="D7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H7" t="n">
-        <v>34658.327</v>
+        <v>7.353099895012244</v>
       </c>
       <c r="I7" t="n">
-        <v>7.860226765552148</v>
+        <v>0.0630290083092802</v>
       </c>
       <c r="J7" t="n">
-        <v>67.92045324548107</v>
+        <v>26.93922770942521</v>
       </c>
       <c r="K7" t="n">
-        <v>29.02988013279563</v>
+        <v>106270.840640625</v>
       </c>
       <c r="L7" t="n">
-        <v>345166.2873</v>
+        <v>2839.823974609375</v>
       </c>
       <c r="M7" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.86894532378203</v>
+        <v>8.152972420220685</v>
       </c>
     </row>
     <row r="8">
@@ -802,47 +779,44 @@
         <v>45536</v>
       </c>
       <c r="B8" t="n">
-        <v>260695.0671875</v>
+        <v>270303.925</v>
       </c>
       <c r="C8" t="n">
-        <v>2400.552783203125</v>
+        <v>2217.721948242187</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H8" t="n">
-        <v>34658.327</v>
+        <v>7.799104815417086</v>
       </c>
       <c r="I8" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06398814196202221</v>
       </c>
       <c r="J8" t="n">
-        <v>67.92045324548107</v>
+        <v>27.34917101280392</v>
       </c>
       <c r="K8" t="n">
-        <v>29.02988013279563</v>
+        <v>112716.736725</v>
       </c>
       <c r="L8" t="n">
-        <v>345166.2873</v>
+        <v>2883.038532714844</v>
       </c>
       <c r="M8" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.86894532378203</v>
+        <v>8.637852063163644</v>
       </c>
     </row>
     <row r="9">
@@ -850,47 +824,44 @@
         <v>45566</v>
       </c>
       <c r="B9" t="n">
-        <v>254846.140625</v>
+        <v>265290.5640625</v>
       </c>
       <c r="C9" t="n">
-        <v>2103.747790527344</v>
+        <v>2148.863037109375</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H9" t="n">
-        <v>34658.327</v>
+        <v>7.654453836231046</v>
       </c>
       <c r="I9" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06200134926043531</v>
       </c>
       <c r="J9" t="n">
-        <v>67.92045324548107</v>
+        <v>25.29545069605343</v>
       </c>
       <c r="K9" t="n">
-        <v>29.02988013279563</v>
+        <v>110626.1652140625</v>
       </c>
       <c r="L9" t="n">
-        <v>345166.2873</v>
+        <v>2793.521948242188</v>
       </c>
       <c r="M9" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.86894532378203</v>
+        <v>8.47495141382557</v>
       </c>
     </row>
     <row r="10">
@@ -898,47 +869,44 @@
         <v>45597</v>
       </c>
       <c r="B10" t="n">
-        <v>269468.2546875</v>
+        <v>266543.9828125</v>
       </c>
       <c r="C10" t="n">
-        <v>2241.464794921875</v>
+        <v>2288.953393554687</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H10" t="n">
-        <v>34658.327</v>
+        <v>7.690618846446339</v>
       </c>
       <c r="I10" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06604338961758563</v>
       </c>
       <c r="J10" t="n">
-        <v>67.92045324548107</v>
+        <v>28.2276043893978</v>
       </c>
       <c r="K10" t="n">
-        <v>29.02988013279563</v>
+        <v>111148.8408328125</v>
       </c>
       <c r="L10" t="n">
-        <v>345166.2873</v>
+        <v>2975.639411621094</v>
       </c>
       <c r="M10" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.86894532378203</v>
+        <v>8.527614996994293</v>
       </c>
     </row>
     <row r="11">
@@ -946,47 +914,44 @@
         <v>45627</v>
       </c>
       <c r="B11" t="n">
-        <v>281166.4796875</v>
+        <v>278659.51875</v>
       </c>
       <c r="C11" t="n">
-        <v>2106.122729492187</v>
+        <v>2136.991455078125</v>
       </c>
       <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H11" t="n">
-        <v>34658.327</v>
+        <v>8.040189555312351</v>
       </c>
       <c r="I11" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06165881737679159</v>
       </c>
       <c r="J11" t="n">
-        <v>67.92045324548107</v>
+        <v>26.35359441888421</v>
       </c>
       <c r="K11" t="n">
-        <v>29.02988013279563</v>
+        <v>116201.01931875</v>
       </c>
       <c r="L11" t="n">
-        <v>345166.2873</v>
+        <v>2778.088891601562</v>
       </c>
       <c r="M11" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.86894532378203</v>
+        <v>8.89036274540307</v>
       </c>
     </row>
     <row r="12">
@@ -994,47 +959,44 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>400277.35</v>
+        <v>401385.203125</v>
       </c>
       <c r="C12" t="n">
-        <v>2447.60341796875</v>
+        <v>2645.991235351562</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H12" t="n">
-        <v>36789.357</v>
+        <v>10.91036201380198</v>
       </c>
       <c r="I12" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07192273665863641</v>
       </c>
       <c r="J12" t="n">
-        <v>67.92045324548107</v>
+        <v>32.27752084192463</v>
       </c>
       <c r="K12" t="n">
-        <v>29.02988013279563</v>
+        <v>167377.629703125</v>
       </c>
       <c r="L12" t="n">
-        <v>345166.2873</v>
+        <v>3439.788605957031</v>
       </c>
       <c r="M12" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.86894532378203</v>
+        <v>11.32796037039103</v>
       </c>
     </row>
     <row r="13">
@@ -1042,47 +1004,44 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>405077.896875</v>
+        <v>403970.19375</v>
       </c>
       <c r="C13" t="n">
-        <v>2526.9587890625</v>
+        <v>2430.24560546875</v>
       </c>
       <c r="D13" t="n">
         <v>21</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H13" t="n">
-        <v>36789.357</v>
+        <v>10.98062664563558</v>
       </c>
       <c r="I13" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06605838763283495</v>
       </c>
       <c r="J13" t="n">
-        <v>67.92045324548107</v>
+        <v>28.23401469092132</v>
       </c>
       <c r="K13" t="n">
-        <v>29.02988013279563</v>
+        <v>168455.57079375</v>
       </c>
       <c r="L13" t="n">
-        <v>345166.2873</v>
+        <v>3159.319287109375</v>
       </c>
       <c r="M13" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.86894532378203</v>
+        <v>11.38084565993951</v>
       </c>
     </row>
     <row r="14">
@@ -1090,47 +1049,44 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>416155.578125</v>
+        <v>413570.9375</v>
       </c>
       <c r="C14" t="n">
-        <v>2323.612060546875</v>
+        <v>2298.813134765625</v>
       </c>
       <c r="D14" t="n">
         <v>21</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H14" t="n">
-        <v>36789.357</v>
+        <v>11.24159189572136</v>
       </c>
       <c r="I14" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06248581987354725</v>
       </c>
       <c r="J14" t="n">
-        <v>67.92045324548107</v>
+        <v>26.70706354641741</v>
       </c>
       <c r="K14" t="n">
-        <v>29.02988013279563</v>
+        <v>172459.0809375</v>
       </c>
       <c r="L14" t="n">
-        <v>345166.2873</v>
+        <v>2988.457075195312</v>
       </c>
       <c r="M14" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.86894532378203</v>
+        <v>11.63501226844626</v>
       </c>
     </row>
     <row r="15">
@@ -1138,47 +1094,44 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>409878.09375</v>
+        <v>405077.896875</v>
       </c>
       <c r="C15" t="n">
-        <v>2316.172998046875</v>
+        <v>2400.487524414063</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H15" t="n">
-        <v>36789.357</v>
+        <v>11.0107359820124</v>
       </c>
       <c r="I15" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06524951018888595</v>
       </c>
       <c r="J15" t="n">
-        <v>67.92045324548107</v>
+        <v>30.82390211747115</v>
       </c>
       <c r="K15" t="n">
-        <v>29.02988013279563</v>
+        <v>168917.482996875</v>
       </c>
       <c r="L15" t="n">
-        <v>345166.2873</v>
+        <v>3120.633781738281</v>
       </c>
       <c r="M15" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.86894532378203</v>
+        <v>11.40891244204701</v>
       </c>
     </row>
     <row r="16">
@@ -1186,47 +1139,44 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>417263.28125</v>
+        <v>400646.784375</v>
       </c>
       <c r="C16" t="n">
-        <v>2150.022680664063</v>
+        <v>2050.829077148438</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H16" t="n">
-        <v>36789.357</v>
+        <v>10.89029048197282</v>
       </c>
       <c r="I16" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05574517318007046</v>
       </c>
       <c r="J16" t="n">
-        <v>67.92045324548107</v>
+        <v>21.75421392392993</v>
       </c>
       <c r="K16" t="n">
-        <v>29.02988013279563</v>
+        <v>167069.709084375</v>
       </c>
       <c r="L16" t="n">
-        <v>345166.2873</v>
+        <v>2666.077800292969</v>
       </c>
       <c r="M16" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.86894532378203</v>
+        <v>11.25623069532381</v>
       </c>
     </row>
     <row r="17">
@@ -1234,47 +1184,44 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>417632.715625</v>
+        <v>412463.084375</v>
       </c>
       <c r="C17" t="n">
-        <v>1964.034265136719</v>
+        <v>1968.995593261719</v>
       </c>
       <c r="D17" t="n">
         <v>21</v>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H17" t="n">
-        <v>36789.357</v>
+        <v>11.21147848207839</v>
       </c>
       <c r="I17" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05352079388780072</v>
       </c>
       <c r="J17" t="n">
-        <v>67.92045324548107</v>
+        <v>22.8753218939729</v>
       </c>
       <c r="K17" t="n">
-        <v>29.02988013279563</v>
+        <v>171997.106184375</v>
       </c>
       <c r="L17" t="n">
-        <v>345166.2873</v>
+        <v>2559.694271240235</v>
       </c>
       <c r="M17" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.86894532378203</v>
+        <v>11.57594194735778</v>
       </c>
     </row>
     <row r="18">
@@ -1282,47 +1229,44 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>411355.38125</v>
+        <v>403970.19375</v>
       </c>
       <c r="C18" t="n">
-        <v>1954.116552734375</v>
+        <v>1795.40517578125</v>
       </c>
       <c r="D18" t="n">
         <v>21</v>
       </c>
-      <c r="E18" t="n">
-        <v>2</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H18" t="n">
-        <v>36789.357</v>
+        <v>10.98062664563558</v>
       </c>
       <c r="I18" t="n">
-        <v>7.860226765552148</v>
+        <v>0.04880229833267404</v>
       </c>
       <c r="J18" t="n">
-        <v>67.92045324548107</v>
+        <v>20.8585897635587</v>
       </c>
       <c r="K18" t="n">
-        <v>29.02988013279563</v>
+        <v>168455.57079375</v>
       </c>
       <c r="L18" t="n">
-        <v>345166.2873</v>
+        <v>2334.026728515625</v>
       </c>
       <c r="M18" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.86894532378203</v>
+        <v>11.32611540180616</v>
       </c>
     </row>
     <row r="19">
@@ -1330,47 +1274,44 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>412463.084375</v>
+        <v>401385.203125</v>
       </c>
       <c r="C19" t="n">
-        <v>1993.792346191406</v>
+        <v>2100.425927734375</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H19" t="n">
-        <v>36789.357</v>
+        <v>10.91036201380198</v>
       </c>
       <c r="I19" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05709330358055387</v>
       </c>
       <c r="J19" t="n">
-        <v>67.92045324548107</v>
+        <v>23.29305511933905</v>
       </c>
       <c r="K19" t="n">
-        <v>29.02988013279563</v>
+        <v>167377.629703125</v>
       </c>
       <c r="L19" t="n">
-        <v>345166.2873</v>
+        <v>2730.553706054688</v>
       </c>
       <c r="M19" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.86894532378203</v>
+        <v>11.28092661400411</v>
       </c>
     </row>
     <row r="20">
@@ -1378,47 +1319,44 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>413570.9375</v>
+        <v>411355.38125</v>
       </c>
       <c r="C20" t="n">
-        <v>1959.074584960938</v>
+        <v>1859.880981445312</v>
       </c>
       <c r="D20" t="n">
         <v>21</v>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H20" t="n">
-        <v>36789.357</v>
+        <v>11.18136914570157</v>
       </c>
       <c r="I20" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05055486513247057</v>
       </c>
       <c r="J20" t="n">
-        <v>67.92045324548107</v>
+        <v>21.60765431910473</v>
       </c>
       <c r="K20" t="n">
-        <v>29.02988013279563</v>
+        <v>171535.19398125</v>
       </c>
       <c r="L20" t="n">
-        <v>345166.2873</v>
+        <v>2417.845275878906</v>
       </c>
       <c r="M20" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.86894532378203</v>
+        <v>11.53590280499551</v>
       </c>
     </row>
     <row r="21">
@@ -1426,47 +1364,44 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>421325.209375</v>
+        <v>391415.375</v>
       </c>
       <c r="C21" t="n">
-        <v>1857.401635742188</v>
+        <v>1678.853930664063</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H21" t="n">
-        <v>36789.357</v>
+        <v>10.63936439552341</v>
       </c>
       <c r="I21" t="n">
-        <v>7.860226765552148</v>
+        <v>0.04563422868913045</v>
       </c>
       <c r="J21" t="n">
-        <v>67.92045324548107</v>
+        <v>19.50452515400697</v>
       </c>
       <c r="K21" t="n">
-        <v>29.02988013279563</v>
+        <v>163220.211375</v>
       </c>
       <c r="L21" t="n">
-        <v>345166.2873</v>
+        <v>2182.510109863281</v>
       </c>
       <c r="M21" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.86894532378203</v>
+        <v>10.9688783069246</v>
       </c>
     </row>
     <row r="22">
@@ -1474,47 +1409,44 @@
         <v>45352</v>
       </c>
       <c r="B22" t="n">
-        <v>121067.5421875</v>
+        <v>123491.86328125</v>
       </c>
       <c r="C22" t="n">
-        <v>827.5245849609375</v>
+        <v>790.7025573730468</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>10970</v>
+      </c>
       <c r="H22" t="n">
-        <v>10970</v>
+        <v>11.25723457440747</v>
       </c>
       <c r="I22" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07207862874868248</v>
       </c>
       <c r="J22" t="n">
-        <v>67.92045324548107</v>
+        <v>32.34748217014042</v>
       </c>
       <c r="K22" t="n">
-        <v>29.02988013279563</v>
+        <v>51496.10698828124</v>
       </c>
       <c r="L22" t="n">
-        <v>345166.2873</v>
+        <v>1027.913324584961</v>
       </c>
       <c r="M22" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.86894532378203</v>
+        <v>39.17496953651072</v>
       </c>
     </row>
     <row r="23">
@@ -1522,47 +1454,44 @@
         <v>45383</v>
       </c>
       <c r="B23" t="n">
-        <v>118275.984375</v>
+        <v>121728.72578125</v>
       </c>
       <c r="C23" t="n">
-        <v>820.41845703125</v>
+        <v>779.7207092285156</v>
       </c>
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="n">
-        <v>3</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>10970</v>
+      </c>
       <c r="H23" t="n">
-        <v>10970</v>
+        <v>11.0965110101413</v>
       </c>
       <c r="I23" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07107754869904427</v>
       </c>
       <c r="J23" t="n">
-        <v>67.92045324548107</v>
+        <v>30.37925426393529</v>
       </c>
       <c r="K23" t="n">
-        <v>29.02988013279563</v>
+        <v>50760.87865078125</v>
       </c>
       <c r="L23" t="n">
-        <v>345166.2873</v>
+        <v>1013.63692199707</v>
       </c>
       <c r="M23" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.86894532378203</v>
+        <v>38.61595243946606</v>
       </c>
     </row>
     <row r="24">
@@ -1570,47 +1499,44 @@
         <v>45413</v>
       </c>
       <c r="B24" t="n">
-        <v>119524.84609375</v>
+        <v>118275.984375</v>
       </c>
       <c r="C24" t="n">
-        <v>807.49853515625</v>
+        <v>831.4005798339844</v>
       </c>
       <c r="D24" t="n">
         <v>21</v>
       </c>
-      <c r="E24" t="n">
-        <v>3</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>10970</v>
+      </c>
       <c r="H24" t="n">
-        <v>10970</v>
+        <v>10.78176703509572</v>
       </c>
       <c r="I24" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07578856698577797</v>
       </c>
       <c r="J24" t="n">
-        <v>67.92045324548107</v>
+        <v>32.39279053515249</v>
       </c>
       <c r="K24" t="n">
-        <v>29.02988013279563</v>
+        <v>49321.085484375</v>
       </c>
       <c r="L24" t="n">
-        <v>345166.2873</v>
+        <v>1080.82075378418</v>
       </c>
       <c r="M24" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.86894532378203</v>
+        <v>37.59219362304387</v>
       </c>
     </row>
     <row r="25">
@@ -1618,47 +1544,44 @@
         <v>45444</v>
       </c>
       <c r="B25" t="n">
-        <v>115117.04921875</v>
+        <v>115704.75546875</v>
       </c>
       <c r="C25" t="n">
-        <v>797.8086853027344</v>
+        <v>812.6664855957031</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>10970</v>
+      </c>
       <c r="H25" t="n">
-        <v>10970</v>
+        <v>10.54737971456244</v>
       </c>
       <c r="I25" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07408080999049253</v>
       </c>
       <c r="J25" t="n">
-        <v>67.92045324548107</v>
+        <v>34.99581267843549</v>
       </c>
       <c r="K25" t="n">
-        <v>29.02988013279563</v>
+        <v>48248.88303046874</v>
       </c>
       <c r="L25" t="n">
-        <v>345166.2873</v>
+        <v>1056.466431274414</v>
       </c>
       <c r="M25" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.86894532378203</v>
+        <v>36.77432823392724</v>
       </c>
     </row>
     <row r="26">
@@ -1666,47 +1589,44 @@
         <v>45474</v>
       </c>
       <c r="B26" t="n">
-        <v>116806.71875</v>
+        <v>113133.5078125</v>
       </c>
       <c r="C26" t="n">
-        <v>751.9426696777343</v>
+        <v>829.4624450683593</v>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>10970</v>
+      </c>
       <c r="H26" t="n">
-        <v>10970</v>
+        <v>10.31299068482224</v>
       </c>
       <c r="I26" t="n">
-        <v>7.860226765552148</v>
+        <v>0.0756118910727766</v>
       </c>
       <c r="J26" t="n">
-        <v>67.92045324548107</v>
+        <v>29.50707944303477</v>
       </c>
       <c r="K26" t="n">
-        <v>29.02988013279563</v>
+        <v>47176.6727578125</v>
       </c>
       <c r="L26" t="n">
-        <v>345166.2873</v>
+        <v>1078.301178588867</v>
       </c>
       <c r="M26" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.86894532378203</v>
+        <v>35.99090706848607</v>
       </c>
     </row>
     <row r="27">
@@ -1714,47 +1634,44 @@
         <v>45505</v>
       </c>
       <c r="B27" t="n">
-        <v>117174.02109375</v>
+        <v>112913.13203125</v>
       </c>
       <c r="C27" t="n">
-        <v>799.1008239746094</v>
+        <v>837.8607543945312</v>
       </c>
       <c r="D27" t="n">
         <v>21</v>
       </c>
-      <c r="E27" t="n">
-        <v>3</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>10970</v>
+      </c>
       <c r="H27" t="n">
-        <v>10970</v>
+        <v>10.29290173484503</v>
       </c>
       <c r="I27" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07637746165857168</v>
       </c>
       <c r="J27" t="n">
-        <v>67.92045324548107</v>
+        <v>32.64449000041158</v>
       </c>
       <c r="K27" t="n">
-        <v>29.02988013279563</v>
+        <v>47084.77605703125</v>
       </c>
       <c r="L27" t="n">
-        <v>345166.2873</v>
+        <v>1089.218980712891</v>
       </c>
       <c r="M27" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.86894532378203</v>
+        <v>35.93050906640816</v>
       </c>
     </row>
     <row r="28">
@@ -1762,47 +1679,44 @@
         <v>45536</v>
       </c>
       <c r="B28" t="n">
-        <v>113207.00390625</v>
+        <v>109974.603125</v>
       </c>
       <c r="C28" t="n">
-        <v>753.8807861328125</v>
+        <v>781.6585693359375</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>3</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>10970</v>
+      </c>
       <c r="H28" t="n">
-        <v>10970</v>
+        <v>10.02503219006381</v>
       </c>
       <c r="I28" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07125419957483478</v>
       </c>
       <c r="J28" t="n">
-        <v>67.92045324548107</v>
+        <v>30.45475661270522</v>
       </c>
       <c r="K28" t="n">
-        <v>29.02988013279563</v>
+        <v>45859.409503125</v>
       </c>
       <c r="L28" t="n">
-        <v>345166.2873</v>
+        <v>1016.156140136719</v>
       </c>
       <c r="M28" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.86894532378203</v>
+        <v>34.96207725804373</v>
       </c>
     </row>
     <row r="29">
@@ -1810,47 +1724,44 @@
         <v>45566</v>
       </c>
       <c r="B29" t="n">
-        <v>110782.6828125</v>
+        <v>112913.13203125</v>
       </c>
       <c r="C29" t="n">
-        <v>745.4830749511718</v>
+        <v>735.1466918945313</v>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>10970</v>
+      </c>
       <c r="H29" t="n">
-        <v>10970</v>
+        <v>10.29290173484503</v>
       </c>
       <c r="I29" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06701428367315691</v>
       </c>
       <c r="J29" t="n">
-        <v>67.92045324548107</v>
+        <v>27.34063901521257</v>
       </c>
       <c r="K29" t="n">
-        <v>29.02988013279563</v>
+        <v>47084.77605703125</v>
       </c>
       <c r="L29" t="n">
-        <v>345166.2873</v>
+        <v>955.6906994628907</v>
       </c>
       <c r="M29" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.86894532378203</v>
+        <v>35.83091717837155</v>
       </c>
     </row>
     <row r="30">
@@ -1858,47 +1769,44 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>115851.66328125</v>
+        <v>110929.61171875</v>
       </c>
       <c r="C30" t="n">
-        <v>721.5809875488281</v>
+        <v>767.4470458984375</v>
       </c>
       <c r="D30" t="n">
         <v>21</v>
       </c>
-      <c r="E30" t="n">
-        <v>3</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>10970</v>
+      </c>
       <c r="H30" t="n">
-        <v>10970</v>
+        <v>10.11208857964904</v>
       </c>
       <c r="I30" t="n">
-        <v>7.860226765552148</v>
+        <v>0.069958709744616</v>
       </c>
       <c r="J30" t="n">
-        <v>67.92045324548107</v>
+        <v>29.90105131941775</v>
       </c>
       <c r="K30" t="n">
-        <v>29.02988013279563</v>
+        <v>46257.64808671875</v>
       </c>
       <c r="L30" t="n">
-        <v>345166.2873</v>
+        <v>997.6811596679688</v>
       </c>
       <c r="M30" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.86894532378203</v>
+        <v>35.24532342798425</v>
       </c>
     </row>
     <row r="31">
@@ -1906,47 +1814,44 @@
         <v>45627</v>
       </c>
       <c r="B31" t="n">
-        <v>114161.99375</v>
+        <v>112178.51796875</v>
       </c>
       <c r="C31" t="n">
-        <v>722.226708984375</v>
+        <v>759.0487365722656</v>
       </c>
       <c r="D31" t="n">
         <v>21</v>
       </c>
-      <c r="E31" t="n">
-        <v>3</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>10970</v>
+      </c>
       <c r="H31" t="n">
-        <v>10970</v>
+        <v>10.22593600444394</v>
       </c>
       <c r="I31" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06919313915882093</v>
       </c>
       <c r="J31" t="n">
-        <v>67.92045324548107</v>
+        <v>29.57383880423473</v>
       </c>
       <c r="K31" t="n">
-        <v>29.02988013279563</v>
+        <v>46778.44199296875</v>
       </c>
       <c r="L31" t="n">
-        <v>345166.2873</v>
+        <v>986.7633575439453</v>
       </c>
       <c r="M31" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.86894532378203</v>
+        <v>35.62561383088087</v>
       </c>
     </row>
     <row r="32">
@@ -1954,47 +1859,44 @@
         <v>45352</v>
       </c>
       <c r="B32" t="n">
-        <v>103069.12421875</v>
+        <v>108558.5296875</v>
       </c>
       <c r="C32" t="n">
-        <v>785.3833679199219</v>
+        <v>735.5491271972656</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>10965</v>
+      </c>
       <c r="H32" t="n">
-        <v>10965</v>
+        <v>9.90045870383037</v>
       </c>
       <c r="I32" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06708154374804064</v>
       </c>
       <c r="J32" t="n">
-        <v>67.92045324548107</v>
+        <v>30.10488792594995</v>
       </c>
       <c r="K32" t="n">
-        <v>29.02988013279563</v>
+        <v>45268.9068796875</v>
       </c>
       <c r="L32" t="n">
-        <v>345166.2873</v>
+        <v>956.2138653564454</v>
       </c>
       <c r="M32" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.86894532378203</v>
+        <v>34.50839370022256</v>
       </c>
     </row>
     <row r="33">
@@ -2002,47 +1904,44 @@
         <v>45383</v>
       </c>
       <c r="B33" t="n">
-        <v>109050.11484375</v>
+        <v>107903.0828125</v>
       </c>
       <c r="C33" t="n">
-        <v>780.0677429199219</v>
+        <v>784.7186157226563</v>
       </c>
       <c r="D33" t="n">
         <v>21</v>
       </c>
-      <c r="E33" t="n">
-        <v>4</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>10965</v>
+      </c>
       <c r="H33" t="n">
-        <v>10965</v>
+        <v>9.840682427040583</v>
       </c>
       <c r="I33" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07156576522778443</v>
       </c>
       <c r="J33" t="n">
-        <v>67.92045324548107</v>
+        <v>30.58792288481378</v>
       </c>
       <c r="K33" t="n">
-        <v>29.02988013279563</v>
+        <v>44995.5855328125</v>
       </c>
       <c r="L33" t="n">
-        <v>345166.2873</v>
+        <v>1020.134200439453</v>
       </c>
       <c r="M33" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.86894532378203</v>
+        <v>34.35206976986446</v>
       </c>
     </row>
     <row r="34">
@@ -2050,47 +1949,44 @@
         <v>45413</v>
       </c>
       <c r="B34" t="n">
-        <v>107411.49765625</v>
+        <v>103560.71171875</v>
       </c>
       <c r="C34" t="n">
-        <v>738.2071105957032</v>
+        <v>714.2866455078125</v>
       </c>
       <c r="D34" t="n">
         <v>21</v>
       </c>
-      <c r="E34" t="n">
-        <v>4</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>10965</v>
+      </c>
       <c r="H34" t="n">
-        <v>10965</v>
+        <v>9.444661351459189</v>
       </c>
       <c r="I34" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06514242093094505</v>
       </c>
       <c r="J34" t="n">
-        <v>67.92045324548107</v>
+        <v>27.84252137350497</v>
       </c>
       <c r="K34" t="n">
-        <v>29.02988013279563</v>
+        <v>43184.81678671874</v>
       </c>
       <c r="L34" t="n">
-        <v>345166.2873</v>
+        <v>928.5726391601563</v>
       </c>
       <c r="M34" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.86894532378203</v>
+        <v>32.93192500579193</v>
       </c>
     </row>
     <row r="35">
@@ -2098,47 +1994,44 @@
         <v>45444</v>
       </c>
       <c r="B35" t="n">
-        <v>108148.890625</v>
+        <v>104625.8484375</v>
       </c>
       <c r="C35" t="n">
-        <v>738.2071105957032</v>
+        <v>715.6157653808593</v>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>10965</v>
+      </c>
       <c r="H35" t="n">
-        <v>10965</v>
+        <v>9.541801043091654</v>
       </c>
       <c r="I35" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06526363569364882</v>
       </c>
       <c r="J35" t="n">
-        <v>67.92045324548107</v>
+        <v>30.83057501317428</v>
       </c>
       <c r="K35" t="n">
-        <v>29.02988013279563</v>
+        <v>43628.9787984375</v>
       </c>
       <c r="L35" t="n">
-        <v>345166.2873</v>
+        <v>930.3004949951171</v>
       </c>
       <c r="M35" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.86894532378203</v>
+        <v>33.26479472789283</v>
       </c>
     </row>
     <row r="36">
@@ -2146,47 +2039,44 @@
         <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>109541.7</v>
+        <v>107083.75390625</v>
       </c>
       <c r="C36" t="n">
-        <v>744.8514709472656</v>
+        <v>711.6290466308594</v>
       </c>
       <c r="D36" t="n">
-        <v>21</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>10965</v>
+      </c>
       <c r="H36" t="n">
-        <v>10965</v>
+        <v>9.765960228568172</v>
       </c>
       <c r="I36" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06490004985233556</v>
       </c>
       <c r="J36" t="n">
-        <v>67.92045324548107</v>
+        <v>25.32684872286265</v>
       </c>
       <c r="K36" t="n">
-        <v>29.02988013279563</v>
+        <v>44653.92537890625</v>
       </c>
       <c r="L36" t="n">
-        <v>345166.2873</v>
+        <v>925.1177606201172</v>
       </c>
       <c r="M36" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.86894532378203</v>
+        <v>34.02607802396794</v>
       </c>
     </row>
     <row r="37">
@@ -2194,47 +2084,44 @@
         <v>45505</v>
       </c>
       <c r="B37" t="n">
-        <v>101348.61171875</v>
+        <v>106264.465625</v>
       </c>
       <c r="C37" t="n">
-        <v>815.2833984375</v>
+        <v>782.0609558105468</v>
       </c>
       <c r="D37" t="n">
         <v>21</v>
       </c>
-      <c r="E37" t="n">
-        <v>4</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>10965</v>
+      </c>
       <c r="H37" t="n">
-        <v>10965</v>
+        <v>9.69124173506612</v>
       </c>
       <c r="I37" t="n">
-        <v>7.860226765552148</v>
+        <v>0.0713233885828132</v>
       </c>
       <c r="J37" t="n">
-        <v>67.92045324548107</v>
+        <v>30.4843286858017</v>
       </c>
       <c r="K37" t="n">
-        <v>29.02988013279563</v>
+        <v>44312.28216562499</v>
       </c>
       <c r="L37" t="n">
-        <v>345166.2873</v>
+        <v>1016.679242553711</v>
       </c>
       <c r="M37" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.86894532378203</v>
+        <v>33.83938475624936</v>
       </c>
     </row>
     <row r="38">
@@ -2242,47 +2129,44 @@
         <v>45536</v>
       </c>
       <c r="B38" t="n">
-        <v>108722.37109375</v>
+        <v>103806.51953125</v>
       </c>
       <c r="C38" t="n">
-        <v>762.1272521972656</v>
+        <v>728.9047668457031</v>
       </c>
       <c r="D38" t="n">
         <v>21</v>
       </c>
-      <c r="E38" t="n">
-        <v>4</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>10965</v>
+      </c>
       <c r="H38" t="n">
-        <v>10965</v>
+        <v>9.467078844619243</v>
       </c>
       <c r="I38" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06647558293166467</v>
       </c>
       <c r="J38" t="n">
-        <v>67.92045324548107</v>
+        <v>28.41232812874866</v>
       </c>
       <c r="K38" t="n">
-        <v>29.02988013279563</v>
+        <v>43287.31864453125</v>
       </c>
       <c r="L38" t="n">
-        <v>345166.2873</v>
+        <v>947.5761968994141</v>
       </c>
       <c r="M38" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.86894532378203</v>
+        <v>33.02263232356609</v>
       </c>
     </row>
     <row r="39">
@@ -2290,47 +2174,44 @@
         <v>45566</v>
       </c>
       <c r="B39" t="n">
-        <v>105445.13671875</v>
+        <v>104625.8484375</v>
       </c>
       <c r="C39" t="n">
-        <v>770.7654418945312</v>
+        <v>777.4094848632812</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>10965</v>
+      </c>
       <c r="H39" t="n">
-        <v>10965</v>
+        <v>9.541801043091654</v>
       </c>
       <c r="I39" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07089917782610865</v>
       </c>
       <c r="J39" t="n">
-        <v>67.92045324548107</v>
+        <v>28.92560691796893</v>
       </c>
       <c r="K39" t="n">
-        <v>29.02988013279563</v>
+        <v>43628.9787984375</v>
       </c>
       <c r="L39" t="n">
-        <v>345166.2873</v>
+        <v>1010.632330322266</v>
       </c>
       <c r="M39" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.86894532378203</v>
+        <v>33.32476477351847</v>
       </c>
     </row>
     <row r="40">
@@ -2338,47 +2219,44 @@
         <v>45597</v>
       </c>
       <c r="B40" t="n">
-        <v>104625.8484375</v>
+        <v>103560.71171875</v>
       </c>
       <c r="C40" t="n">
-        <v>729.5689392089844</v>
+        <v>709.6358154296875</v>
       </c>
       <c r="D40" t="n">
         <v>21</v>
       </c>
-      <c r="E40" t="n">
-        <v>4</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>10965</v>
+      </c>
       <c r="H40" t="n">
-        <v>10965</v>
+        <v>9.444661351459189</v>
       </c>
       <c r="I40" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06471826862103852</v>
       </c>
       <c r="J40" t="n">
-        <v>67.92045324548107</v>
+        <v>27.6612344396541</v>
       </c>
       <c r="K40" t="n">
-        <v>29.02988013279563</v>
+        <v>43184.81678671874</v>
       </c>
       <c r="L40" t="n">
-        <v>345166.2873</v>
+        <v>922.5265600585938</v>
       </c>
       <c r="M40" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.86894532378203</v>
+        <v>32.92741143233627</v>
       </c>
     </row>
     <row r="41">
@@ -2386,47 +2264,44 @@
         <v>45627</v>
       </c>
       <c r="B41" t="n">
-        <v>108230.7859375</v>
+        <v>104871.65625</v>
       </c>
       <c r="C41" t="n">
-        <v>782.0609558105468</v>
+        <v>740.2005981445312</v>
       </c>
       <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E41" t="n">
-        <v>4</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>10965</v>
+      </c>
       <c r="H41" t="n">
-        <v>10965</v>
+        <v>9.56421853625171</v>
       </c>
       <c r="I41" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06750575450474521</v>
       </c>
       <c r="J41" t="n">
-        <v>67.92045324548107</v>
+        <v>28.85263374883419</v>
       </c>
       <c r="K41" t="n">
-        <v>29.02988013279563</v>
+        <v>43731.48065625</v>
       </c>
       <c r="L41" t="n">
-        <v>345166.2873</v>
+        <v>962.2607775878906</v>
       </c>
       <c r="M41" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.86894532378203</v>
+        <v>33.36517461666528</v>
       </c>
     </row>
     <row r="42">
@@ -2434,47 +2309,44 @@
         <v>45352</v>
       </c>
       <c r="B42" t="n">
-        <v>81350.1609375</v>
+        <v>83201.5421875</v>
       </c>
       <c r="C42" t="n">
-        <v>475.3346527099609</v>
+        <v>480.2621978759765</v>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>7264</v>
+      </c>
       <c r="H42" t="n">
-        <v>7264</v>
+        <v>11.45395679893998</v>
       </c>
       <c r="I42" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06611539067675888</v>
       </c>
       <c r="J42" t="n">
-        <v>67.92045324548107</v>
+        <v>29.67129727932594</v>
       </c>
       <c r="K42" t="n">
-        <v>29.02988013279563</v>
+        <v>34695.0430921875</v>
       </c>
       <c r="L42" t="n">
-        <v>345166.2873</v>
+        <v>624.3408572387696</v>
       </c>
       <c r="M42" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.86894532378203</v>
+        <v>60.07937565266382</v>
       </c>
     </row>
     <row r="43">
@@ -2482,47 +2354,44 @@
         <v>45383</v>
       </c>
       <c r="B43" t="n">
-        <v>84941.86484374999</v>
+        <v>78647.11484374999</v>
       </c>
       <c r="C43" t="n">
-        <v>434.7756652832031</v>
+        <v>480.6414123535156</v>
       </c>
       <c r="D43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="n">
-        <v>5</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>7264</v>
+      </c>
       <c r="H43" t="n">
-        <v>7264</v>
+        <v>10.82697065580259</v>
       </c>
       <c r="I43" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06616759531298398</v>
       </c>
       <c r="J43" t="n">
-        <v>67.92045324548107</v>
+        <v>28.28069114422544</v>
       </c>
       <c r="K43" t="n">
-        <v>29.02988013279563</v>
+        <v>32795.84688984375</v>
       </c>
       <c r="L43" t="n">
-        <v>345166.2873</v>
+        <v>624.8338360595703</v>
       </c>
       <c r="M43" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.86894532378203</v>
+        <v>56.84962214444013</v>
       </c>
     </row>
     <row r="44">
@@ -2530,47 +2399,44 @@
         <v>45413</v>
       </c>
       <c r="B44" t="n">
-        <v>81424.2140625</v>
+        <v>81387.17265625</v>
       </c>
       <c r="C44" t="n">
-        <v>427.194580078125</v>
+        <v>430.9852264404297</v>
       </c>
       <c r="D44" t="n">
         <v>21</v>
       </c>
-      <c r="E44" t="n">
-        <v>5</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>7264</v>
+      </c>
       <c r="H44" t="n">
-        <v>7264</v>
+        <v>11.20418125774367</v>
       </c>
       <c r="I44" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05933166663552171</v>
       </c>
       <c r="J44" t="n">
-        <v>67.92045324548107</v>
+        <v>25.35894694758651</v>
       </c>
       <c r="K44" t="n">
-        <v>29.02988013279563</v>
+        <v>33938.45099765625</v>
       </c>
       <c r="L44" t="n">
-        <v>345166.2873</v>
+        <v>560.2807943725586</v>
       </c>
       <c r="M44" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.86894532378203</v>
+        <v>58.68342069164156</v>
       </c>
     </row>
     <row r="45">
@@ -2578,47 +2444,44 @@
         <v>45444</v>
       </c>
       <c r="B45" t="n">
-        <v>82201.8046875</v>
+        <v>79017.41953124999</v>
       </c>
       <c r="C45" t="n">
-        <v>410.137319946289</v>
+        <v>420.3716033935547</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>7264</v>
+      </c>
       <c r="H45" t="n">
-        <v>7264</v>
+        <v>10.87794872401569</v>
       </c>
       <c r="I45" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05787054011475147</v>
       </c>
       <c r="J45" t="n">
-        <v>67.92045324548107</v>
+        <v>27.33807286550519</v>
       </c>
       <c r="K45" t="n">
-        <v>29.02988013279563</v>
+        <v>32950.26394453125</v>
       </c>
       <c r="L45" t="n">
-        <v>345166.2873</v>
+        <v>546.4830844116211</v>
       </c>
       <c r="M45" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.86894532378203</v>
+        <v>56.97901330260319</v>
       </c>
     </row>
     <row r="46">
@@ -2626,47 +2489,44 @@
         <v>45474</v>
       </c>
       <c r="B46" t="n">
-        <v>80868.784375</v>
+        <v>79980.140625</v>
       </c>
       <c r="C46" t="n">
-        <v>415.06484375</v>
+        <v>393.0798004150391</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>7264</v>
+      </c>
       <c r="H46" t="n">
-        <v>7264</v>
+        <v>11.01048191423458</v>
       </c>
       <c r="I46" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05411340864744481</v>
       </c>
       <c r="J46" t="n">
-        <v>67.92045324548107</v>
+        <v>21.11742776485651</v>
       </c>
       <c r="K46" t="n">
-        <v>29.02988013279563</v>
+        <v>33351.718640625</v>
       </c>
       <c r="L46" t="n">
-        <v>345166.2873</v>
+        <v>511.0037405395508</v>
       </c>
       <c r="M46" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.86894532378203</v>
+        <v>57.60154881163771</v>
       </c>
     </row>
     <row r="47">
@@ -2674,47 +2534,44 @@
         <v>45505</v>
       </c>
       <c r="B47" t="n">
-        <v>82572.0625</v>
+        <v>81461.25</v>
       </c>
       <c r="C47" t="n">
-        <v>417.3391693115234</v>
+        <v>421.1298156738281</v>
       </c>
       <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E47" t="n">
-        <v>5</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>7264</v>
+      </c>
       <c r="H47" t="n">
-        <v>7264</v>
+        <v>11.21437912995595</v>
       </c>
       <c r="I47" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05797491955862172</v>
       </c>
       <c r="J47" t="n">
-        <v>67.92045324548107</v>
+        <v>24.7790596952065</v>
       </c>
       <c r="K47" t="n">
-        <v>29.02988013279563</v>
+        <v>33969.34125</v>
       </c>
       <c r="L47" t="n">
-        <v>345166.2873</v>
+        <v>547.4687603759766</v>
       </c>
       <c r="M47" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.86894532378203</v>
+        <v>58.7141723059043</v>
       </c>
     </row>
     <row r="48">
@@ -2722,47 +2579,44 @@
         <v>45536</v>
       </c>
       <c r="B48" t="n">
-        <v>82349.89609374999</v>
+        <v>78387.93984375001</v>
       </c>
       <c r="C48" t="n">
-        <v>453.7284820556641</v>
+        <v>412.0324096679688</v>
       </c>
       <c r="D48" t="n">
         <v>21</v>
       </c>
-      <c r="E48" t="n">
-        <v>5</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>7264</v>
+      </c>
       <c r="H48" t="n">
-        <v>7264</v>
+        <v>10.79129127804928</v>
       </c>
       <c r="I48" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05672252335737455</v>
       </c>
       <c r="J48" t="n">
-        <v>67.92045324548107</v>
+        <v>24.24377304937727</v>
       </c>
       <c r="K48" t="n">
-        <v>29.02988013279563</v>
+        <v>32687.77091484375</v>
       </c>
       <c r="L48" t="n">
-        <v>345166.2873</v>
+        <v>535.6421325683594</v>
       </c>
       <c r="M48" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.86894532378203</v>
+        <v>56.51406365969495</v>
       </c>
     </row>
     <row r="49">
@@ -2770,47 +2624,44 @@
         <v>45566</v>
       </c>
       <c r="B49" t="n">
-        <v>80128.22421874999</v>
+        <v>81720.43046875</v>
       </c>
       <c r="C49" t="n">
-        <v>437.4292266845703</v>
+        <v>416.2019287109375</v>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>7264</v>
+      </c>
       <c r="H49" t="n">
-        <v>7264</v>
+        <v>11.2500592605658</v>
       </c>
       <c r="I49" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05729652102298149</v>
       </c>
       <c r="J49" t="n">
-        <v>67.92045324548107</v>
+        <v>23.37596423110553</v>
       </c>
       <c r="K49" t="n">
-        <v>29.02988013279563</v>
+        <v>34077.41950546874</v>
       </c>
       <c r="L49" t="n">
-        <v>345166.2873</v>
+        <v>541.0625073242188</v>
       </c>
       <c r="M49" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.86894532378203</v>
+        <v>58.88711955875887</v>
       </c>
     </row>
     <row r="50">
@@ -2818,47 +2669,44 @@
         <v>45597</v>
       </c>
       <c r="B50" t="n">
-        <v>80868.784375</v>
+        <v>78795.25078125</v>
       </c>
       <c r="C50" t="n">
-        <v>396.1122344970703</v>
+        <v>390.4262390136719</v>
       </c>
       <c r="D50" t="n">
         <v>21</v>
       </c>
-      <c r="E50" t="n">
-        <v>5</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G50" t="n">
+        <v>7264</v>
+      </c>
       <c r="H50" t="n">
-        <v>7264</v>
+        <v>10.84736381900468</v>
       </c>
       <c r="I50" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05374810559108919</v>
       </c>
       <c r="J50" t="n">
-        <v>67.92045324548107</v>
+        <v>22.97247718643533</v>
       </c>
       <c r="K50" t="n">
-        <v>29.02988013279563</v>
+        <v>32857.61957578125</v>
       </c>
       <c r="L50" t="n">
-        <v>345166.2873</v>
+        <v>507.5541107177735</v>
       </c>
       <c r="M50" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.86894532378203</v>
+        <v>56.7552029360951</v>
       </c>
     </row>
     <row r="51">
@@ -2866,47 +2714,44 @@
         <v>45627</v>
       </c>
       <c r="B51" t="n">
-        <v>80239.315625</v>
+        <v>80350.390625</v>
       </c>
       <c r="C51" t="n">
-        <v>391.9427062988281</v>
+        <v>415.8230560302734</v>
       </c>
       <c r="D51" t="n">
         <v>21</v>
       </c>
-      <c r="E51" t="n">
-        <v>5</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>7264</v>
+      </c>
       <c r="H51" t="n">
-        <v>7264</v>
+        <v>11.06145245388216</v>
       </c>
       <c r="I51" t="n">
-        <v>7.860226765552148</v>
+        <v>0.05724436344029095</v>
       </c>
       <c r="J51" t="n">
-        <v>67.92045324548107</v>
+        <v>24.46681271315571</v>
       </c>
       <c r="K51" t="n">
-        <v>29.02988013279563</v>
+        <v>33506.112890625</v>
       </c>
       <c r="L51" t="n">
-        <v>345166.2873</v>
+        <v>540.5699728393555</v>
       </c>
       <c r="M51" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.86894532378203</v>
+        <v>57.91447133987776</v>
       </c>
     </row>
     <row r="52">
@@ -2914,47 +2759,44 @@
         <v>45292</v>
       </c>
       <c r="B52" t="n">
-        <v>806379.8375</v>
+        <v>744945.875</v>
       </c>
       <c r="C52" t="n">
-        <v>5387.99970703125</v>
+        <v>5131.42919921875</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>74215</v>
+      </c>
       <c r="H52" t="n">
-        <v>74215</v>
+        <v>10.03767264030183</v>
       </c>
       <c r="I52" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06914275010737385</v>
       </c>
       <c r="J52" t="n">
-        <v>67.92045324548107</v>
+        <v>28.20901556487093</v>
       </c>
       <c r="K52" t="n">
-        <v>29.02988013279563</v>
+        <v>310642.429875</v>
       </c>
       <c r="L52" t="n">
-        <v>345166.2873</v>
+        <v>6670.857958984375</v>
       </c>
       <c r="M52" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.86894532378203</v>
+        <v>5.170932128116644</v>
       </c>
     </row>
     <row r="53">
@@ -2962,47 +2804,44 @@
         <v>45323</v>
       </c>
       <c r="B53" t="n">
-        <v>748332.16875</v>
+        <v>717857.2375</v>
       </c>
       <c r="C53" t="n">
-        <v>5104.421728515625</v>
+        <v>5342.98583984375</v>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>74215</v>
+      </c>
       <c r="H53" t="n">
-        <v>74215</v>
+        <v>9.672670450717511</v>
       </c>
       <c r="I53" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07199334150567607</v>
       </c>
       <c r="J53" t="n">
-        <v>67.92045324548107</v>
+        <v>32.30920691962048</v>
       </c>
       <c r="K53" t="n">
-        <v>29.02988013279563</v>
+        <v>299346.4680375</v>
       </c>
       <c r="L53" t="n">
-        <v>345166.2873</v>
+        <v>6945.881591796875</v>
       </c>
       <c r="M53" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.86894532378203</v>
+        <v>4.991335100101785</v>
       </c>
     </row>
     <row r="54">
@@ -3010,47 +2849,44 @@
         <v>45352</v>
       </c>
       <c r="B54" t="n">
-        <v>720759.625</v>
+        <v>703344.9875</v>
       </c>
       <c r="C54" t="n">
-        <v>4960.381884765625</v>
+        <v>5374.49677734375</v>
       </c>
       <c r="D54" t="n">
-        <v>21</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>74215</v>
+      </c>
       <c r="H54" t="n">
-        <v>74215</v>
+        <v>9.477127096948056</v>
       </c>
       <c r="I54" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07241793137969077</v>
       </c>
       <c r="J54" t="n">
-        <v>67.92045324548107</v>
+        <v>32.4997545703978</v>
       </c>
       <c r="K54" t="n">
-        <v>29.02988013279563</v>
+        <v>293294.8597875</v>
       </c>
       <c r="L54" t="n">
-        <v>345166.2873</v>
+        <v>6986.845810546875</v>
       </c>
       <c r="M54" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.86894532378203</v>
+        <v>4.893385743665998</v>
       </c>
     </row>
     <row r="55">
@@ -3058,47 +2894,44 @@
         <v>45383</v>
       </c>
       <c r="B55" t="n">
-        <v>711568.5125</v>
+        <v>694154.33125</v>
       </c>
       <c r="C55" t="n">
-        <v>4834.347021484375</v>
+        <v>5176.43896484375</v>
       </c>
       <c r="D55" t="n">
         <v>21</v>
       </c>
-      <c r="E55" t="n">
-        <v>6</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>74215</v>
+      </c>
       <c r="H55" t="n">
-        <v>74215</v>
+        <v>9.353288839857173</v>
       </c>
       <c r="I55" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06974922811889443</v>
       </c>
       <c r="J55" t="n">
-        <v>67.92045324548107</v>
+        <v>29.8115167802011</v>
       </c>
       <c r="K55" t="n">
-        <v>29.02988013279563</v>
+        <v>289462.35613125</v>
       </c>
       <c r="L55" t="n">
-        <v>345166.2873</v>
+        <v>6729.370654296875</v>
       </c>
       <c r="M55" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.86894532378203</v>
+        <v>4.826735516096776</v>
       </c>
     </row>
     <row r="56">
@@ -3106,47 +2939,44 @@
         <v>45413</v>
       </c>
       <c r="B56" t="n">
-        <v>704312.46875</v>
+        <v>679158.8</v>
       </c>
       <c r="C56" t="n">
-        <v>4982.885888671875</v>
+        <v>4847.8498046875</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
       </c>
-      <c r="E56" t="n">
-        <v>6</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>74215</v>
+      </c>
       <c r="H56" t="n">
-        <v>74215</v>
+        <v>9.151233578117631</v>
       </c>
       <c r="I56" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06532169783315368</v>
       </c>
       <c r="J56" t="n">
-        <v>67.92045324548107</v>
+        <v>27.91914611219576</v>
       </c>
       <c r="K56" t="n">
-        <v>29.02988013279563</v>
+        <v>283209.2196</v>
       </c>
       <c r="L56" t="n">
-        <v>345166.2873</v>
+        <v>6302.20474609375</v>
       </c>
       <c r="M56" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.86894532378203</v>
+        <v>4.717873417237</v>
       </c>
     </row>
     <row r="57">
@@ -3154,47 +2984,44 @@
         <v>45444</v>
       </c>
       <c r="B57" t="n">
-        <v>675772.4625</v>
+        <v>669484.175</v>
       </c>
       <c r="C57" t="n">
-        <v>5099.91953125</v>
+        <v>5257.4640625</v>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>74215</v>
+      </c>
       <c r="H57" t="n">
-        <v>74215</v>
+        <v>9.020874149430709</v>
       </c>
       <c r="I57" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07084098986054033</v>
       </c>
       <c r="J57" t="n">
-        <v>67.92045324548107</v>
+        <v>33.46531998546706</v>
       </c>
       <c r="K57" t="n">
-        <v>29.02988013279563</v>
+        <v>279174.900975</v>
       </c>
       <c r="L57" t="n">
-        <v>345166.2873</v>
+        <v>6834.70328125</v>
       </c>
       <c r="M57" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.86894532378203</v>
+        <v>4.660807814554357</v>
       </c>
     </row>
     <row r="58">
@@ -3202,47 +3029,44 @@
         <v>45474</v>
       </c>
       <c r="B58" t="n">
-        <v>682544.7</v>
+        <v>660292.875</v>
       </c>
       <c r="C58" t="n">
-        <v>4901.863330078125</v>
+        <v>4937.87470703125</v>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>74215</v>
+      </c>
       <c r="H58" t="n">
-        <v>74215</v>
+        <v>8.897027218217341</v>
       </c>
       <c r="I58" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06653472622827258</v>
       </c>
       <c r="J58" t="n">
-        <v>67.92045324548107</v>
+        <v>25.96477121103321</v>
       </c>
       <c r="K58" t="n">
-        <v>29.02988013279563</v>
+        <v>275342.128875</v>
       </c>
       <c r="L58" t="n">
-        <v>345166.2873</v>
+        <v>6419.237119140626</v>
       </c>
       <c r="M58" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.86894532378203</v>
+        <v>4.591578593592993</v>
       </c>
     </row>
     <row r="59">
@@ -3250,47 +3074,44 @@
         <v>45505</v>
       </c>
       <c r="B59" t="n">
-        <v>661260.65</v>
+        <v>650618.26875</v>
       </c>
       <c r="C59" t="n">
-        <v>5329.481298828125</v>
+        <v>4937.87470703125</v>
       </c>
       <c r="D59" t="n">
         <v>21</v>
       </c>
-      <c r="E59" t="n">
-        <v>6</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v>74215</v>
+      </c>
       <c r="H59" t="n">
-        <v>74215</v>
+        <v>8.766668042174762</v>
       </c>
       <c r="I59" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06653472622827258</v>
       </c>
       <c r="J59" t="n">
-        <v>67.92045324548107</v>
+        <v>28.43760656446494</v>
       </c>
       <c r="K59" t="n">
-        <v>29.02988013279563</v>
+        <v>271307.81806875</v>
       </c>
       <c r="L59" t="n">
-        <v>345166.2873</v>
+        <v>6419.237119140626</v>
       </c>
       <c r="M59" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.86894532378203</v>
+        <v>4.52583553093953</v>
       </c>
     </row>
     <row r="60">
@@ -3298,47 +3119,44 @@
         <v>45536</v>
       </c>
       <c r="B60" t="n">
-        <v>648199.6875</v>
+        <v>642394.93125</v>
       </c>
       <c r="C60" t="n">
-        <v>5086.4140625</v>
+        <v>5270.9669921875</v>
       </c>
       <c r="D60" t="n">
         <v>21</v>
       </c>
-      <c r="E60" t="n">
-        <v>6</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>74215</v>
+      </c>
       <c r="H60" t="n">
-        <v>74215</v>
+        <v>8.6558637910126</v>
       </c>
       <c r="I60" t="n">
-        <v>7.860226765552148</v>
+        <v>0.0710229332639965</v>
       </c>
       <c r="J60" t="n">
-        <v>67.92045324548107</v>
+        <v>30.35591108147586</v>
       </c>
       <c r="K60" t="n">
-        <v>29.02988013279563</v>
+        <v>267878.68633125</v>
       </c>
       <c r="L60" t="n">
-        <v>345166.2873</v>
+        <v>6852.257089843751</v>
       </c>
       <c r="M60" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.86894532378203</v>
+        <v>4.4770109427853</v>
       </c>
     </row>
     <row r="61">
@@ -3346,47 +3164,44 @@
         <v>45566</v>
       </c>
       <c r="B61" t="n">
-        <v>667548.9375</v>
+        <v>624496.825</v>
       </c>
       <c r="C61" t="n">
-        <v>4838.8458984375</v>
+        <v>4897.364453125</v>
       </c>
       <c r="D61" t="n">
-        <v>21</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>74215</v>
+      </c>
       <c r="H61" t="n">
-        <v>74215</v>
+        <v>8.414698174223538</v>
       </c>
       <c r="I61" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06598887628006468</v>
       </c>
       <c r="J61" t="n">
-        <v>67.92045324548107</v>
+        <v>26.92229098787561</v>
       </c>
       <c r="K61" t="n">
-        <v>29.02988013279563</v>
+        <v>260415.176025</v>
       </c>
       <c r="L61" t="n">
-        <v>345166.2873</v>
+        <v>6366.573789062501</v>
       </c>
       <c r="M61" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.86894532378203</v>
+        <v>4.347471014294428</v>
       </c>
     </row>
     <row r="62">
@@ -3394,47 +3209,44 @@
         <v>45597</v>
       </c>
       <c r="B62" t="n">
-        <v>681577.3625</v>
+        <v>648199.6875</v>
       </c>
       <c r="C62" t="n">
-        <v>5311.476171875</v>
+        <v>5072.9111328125</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
       </c>
-      <c r="E62" t="n">
-        <v>6</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>74215</v>
+      </c>
       <c r="H62" t="n">
-        <v>74215</v>
+        <v>8.734079195580408</v>
       </c>
       <c r="I62" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06835425632031934</v>
       </c>
       <c r="J62" t="n">
-        <v>67.92045324548107</v>
+        <v>29.21529189997389</v>
       </c>
       <c r="K62" t="n">
-        <v>29.02988013279563</v>
+        <v>270299.2696875</v>
       </c>
       <c r="L62" t="n">
-        <v>345166.2873</v>
+        <v>6594.78447265625</v>
       </c>
       <c r="M62" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.86894532378203</v>
+        <v>4.512260959869818</v>
       </c>
     </row>
     <row r="63">
@@ -3442,47 +3254,44 @@
         <v>45627</v>
       </c>
       <c r="B63" t="n">
-        <v>695121.66875</v>
+        <v>652553.50625</v>
       </c>
       <c r="C63" t="n">
-        <v>4667.799658203125</v>
+        <v>4946.877197265625</v>
       </c>
       <c r="D63" t="n">
         <v>21</v>
       </c>
-      <c r="E63" t="n">
-        <v>6</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>74215</v>
+      </c>
       <c r="H63" t="n">
-        <v>74215</v>
+        <v>8.792744138651216</v>
       </c>
       <c r="I63" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06665602906778448</v>
       </c>
       <c r="J63" t="n">
-        <v>67.92045324548107</v>
+        <v>28.48945260969186</v>
       </c>
       <c r="K63" t="n">
-        <v>29.02988013279563</v>
+        <v>272114.81210625</v>
       </c>
       <c r="L63" t="n">
-        <v>345166.2873</v>
+        <v>6430.940356445312</v>
       </c>
       <c r="M63" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.86894532378203</v>
+        <v>4.539177008286369</v>
       </c>
     </row>
     <row r="64">
@@ -3490,47 +3299,44 @@
         <v>45292</v>
       </c>
       <c r="B64" t="n">
-        <v>361311.3125</v>
+        <v>349498.728125</v>
       </c>
       <c r="C64" t="n">
-        <v>1861.40029296875</v>
+        <v>1740.6015625</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>67896</v>
+      </c>
       <c r="H64" t="n">
-        <v>67896</v>
+        <v>5.14755991700542</v>
       </c>
       <c r="I64" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02563629024537528</v>
       </c>
       <c r="J64" t="n">
-        <v>67.92045324548107</v>
+        <v>10.45915167438814</v>
       </c>
       <c r="K64" t="n">
-        <v>29.02988013279563</v>
+        <v>145740.969628125</v>
       </c>
       <c r="L64" t="n">
-        <v>345166.2873</v>
+        <v>2262.78203125</v>
       </c>
       <c r="M64" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.86894532378203</v>
+        <v>2.881696956454819</v>
       </c>
     </row>
     <row r="65">
@@ -3541,44 +3347,41 @@
         <v>354377.71875</v>
       </c>
       <c r="C65" t="n">
-        <v>1605.160632324219</v>
+        <v>1654.577490234375</v>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>67896</v>
+      </c>
       <c r="H65" t="n">
-        <v>67896</v>
+        <v>5.219419682308236</v>
       </c>
       <c r="I65" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02436929259800835</v>
       </c>
       <c r="J65" t="n">
-        <v>67.92045324548107</v>
+        <v>10.93646301959399</v>
       </c>
       <c r="K65" t="n">
-        <v>29.02988013279563</v>
+        <v>147775.50871875</v>
       </c>
       <c r="L65" t="n">
-        <v>345166.2873</v>
+        <v>2150.950737304688</v>
       </c>
       <c r="M65" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.86894532378203</v>
+        <v>2.919132907528515</v>
       </c>
     </row>
     <row r="66">
@@ -3586,47 +3389,44 @@
         <v>45352</v>
       </c>
       <c r="B66" t="n">
-        <v>340767.446875</v>
+        <v>331266</v>
       </c>
       <c r="C66" t="n">
-        <v>1698.505444335937</v>
+        <v>1636.275769042969</v>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G66" t="n">
+        <v>67896</v>
+      </c>
       <c r="H66" t="n">
-        <v>67896</v>
+        <v>4.879020855425946</v>
       </c>
       <c r="I66" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02409973737838707</v>
       </c>
       <c r="J66" t="n">
-        <v>67.92045324548107</v>
+        <v>10.815491896642</v>
       </c>
       <c r="K66" t="n">
-        <v>29.02988013279563</v>
+        <v>138137.922</v>
       </c>
       <c r="L66" t="n">
-        <v>345166.2873</v>
+        <v>2127.158499755859</v>
       </c>
       <c r="M66" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.86894532378203</v>
+        <v>2.731021687229191</v>
       </c>
     </row>
     <row r="67">
@@ -3634,47 +3434,44 @@
         <v>45383</v>
       </c>
       <c r="B67" t="n">
-        <v>336658.8</v>
+        <v>336401.90625</v>
       </c>
       <c r="C67" t="n">
-        <v>1577.706750488281</v>
+        <v>1605.160632324219</v>
       </c>
       <c r="D67" t="n">
         <v>21</v>
       </c>
-      <c r="E67" t="n">
-        <v>7</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G67" t="n">
+        <v>67896</v>
+      </c>
       <c r="H67" t="n">
-        <v>67896</v>
+        <v>4.95466457891481</v>
       </c>
       <c r="I67" t="n">
-        <v>7.860226765552148</v>
+        <v>0.0236414609450368</v>
       </c>
       <c r="J67" t="n">
-        <v>67.92045324548107</v>
+        <v>10.10459654793675</v>
       </c>
       <c r="K67" t="n">
-        <v>29.02988013279563</v>
+        <v>140279.59490625</v>
       </c>
       <c r="L67" t="n">
-        <v>345166.2873</v>
+        <v>2086.708822021485</v>
       </c>
       <c r="M67" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2.86894532378203</v>
+        <v>2.771933410848071</v>
       </c>
     </row>
     <row r="68">
@@ -3682,47 +3479,44 @@
         <v>45413</v>
       </c>
       <c r="B68" t="n">
-        <v>335631.5625</v>
+        <v>331266</v>
       </c>
       <c r="C68" t="n">
-        <v>1557.5732421875</v>
+        <v>1499.004223632812</v>
       </c>
       <c r="D68" t="n">
         <v>21</v>
       </c>
-      <c r="E68" t="n">
-        <v>7</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>67896</v>
+      </c>
       <c r="H68" t="n">
-        <v>67896</v>
+        <v>4.879020855425946</v>
       </c>
       <c r="I68" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02207794602970444</v>
       </c>
       <c r="J68" t="n">
-        <v>67.92045324548107</v>
+        <v>9.436334656133836</v>
       </c>
       <c r="K68" t="n">
-        <v>29.02988013279563</v>
+        <v>138137.922</v>
       </c>
       <c r="L68" t="n">
-        <v>345166.2873</v>
+        <v>1948.705490722656</v>
       </c>
       <c r="M68" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2.86894532378203</v>
+        <v>2.727547130082933</v>
       </c>
     </row>
     <row r="69">
@@ -3730,47 +3524,44 @@
         <v>45444</v>
       </c>
       <c r="B69" t="n">
-        <v>327157.425</v>
+        <v>320223.853125</v>
       </c>
       <c r="C69" t="n">
-        <v>1550.251696777344</v>
+        <v>1647.257446289062</v>
       </c>
       <c r="D69" t="n">
-        <v>21</v>
-      </c>
-      <c r="E69" t="n">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G69" t="n">
+        <v>67896</v>
+      </c>
       <c r="H69" t="n">
-        <v>67896</v>
+        <v>4.71638760935843</v>
       </c>
       <c r="I69" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02426148000307916</v>
       </c>
       <c r="J69" t="n">
-        <v>67.92045324548107</v>
+        <v>11.46113561121069</v>
       </c>
       <c r="K69" t="n">
-        <v>29.02988013279563</v>
+        <v>133533.346753125</v>
       </c>
       <c r="L69" t="n">
-        <v>345166.2873</v>
+        <v>2141.434680175782</v>
       </c>
       <c r="M69" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.86894532378203</v>
+        <v>2.64164658220169</v>
       </c>
     </row>
     <row r="70">
@@ -3778,47 +3569,44 @@
         <v>45474</v>
       </c>
       <c r="B70" t="n">
-        <v>345903.59375</v>
+        <v>341794.70625</v>
       </c>
       <c r="C70" t="n">
-        <v>1500.834838867188</v>
+        <v>1612.481286621094</v>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>67896</v>
+      </c>
       <c r="H70" t="n">
-        <v>67896</v>
+        <v>5.034091938405797</v>
       </c>
       <c r="I70" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02374928252947292</v>
       </c>
       <c r="J70" t="n">
-        <v>67.92045324548107</v>
+        <v>9.268012694428458</v>
       </c>
       <c r="K70" t="n">
-        <v>29.02988013279563</v>
+        <v>142528.39250625</v>
       </c>
       <c r="L70" t="n">
-        <v>345166.2873</v>
+        <v>2096.225672607422</v>
       </c>
       <c r="M70" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.86894532378203</v>
+        <v>2.815903768396499</v>
       </c>
     </row>
     <row r="71">
@@ -3826,47 +3614,44 @@
         <v>45505</v>
       </c>
       <c r="B71" t="n">
-        <v>339997.01875</v>
+        <v>338199.571875</v>
       </c>
       <c r="C71" t="n">
-        <v>1610.65185546875</v>
+        <v>1458.737939453125</v>
       </c>
       <c r="D71" t="n">
         <v>21</v>
       </c>
-      <c r="E71" t="n">
-        <v>7</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G71" t="n">
+        <v>67896</v>
+      </c>
       <c r="H71" t="n">
-        <v>67896</v>
+        <v>4.981141331963592</v>
       </c>
       <c r="I71" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02148488776147527</v>
       </c>
       <c r="J71" t="n">
-        <v>67.92045324548107</v>
+        <v>9.182855628598023</v>
       </c>
       <c r="K71" t="n">
-        <v>29.02988013279563</v>
+        <v>141029.221471875</v>
       </c>
       <c r="L71" t="n">
-        <v>345166.2873</v>
+        <v>1896.359321289062</v>
       </c>
       <c r="M71" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.86894532378203</v>
+        <v>2.782822776811072</v>
       </c>
     </row>
     <row r="72">
@@ -3874,47 +3659,44 @@
         <v>45536</v>
       </c>
       <c r="B72" t="n">
-        <v>335631.5625</v>
+        <v>325359.759375</v>
       </c>
       <c r="C72" t="n">
-        <v>1594.178955078125</v>
+        <v>1513.645983886719</v>
       </c>
       <c r="D72" t="n">
         <v>21</v>
       </c>
-      <c r="E72" t="n">
-        <v>7</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G72" t="n">
+        <v>67896</v>
+      </c>
       <c r="H72" t="n">
-        <v>67896</v>
+        <v>4.792031332847296</v>
       </c>
       <c r="I72" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02229359585081181</v>
       </c>
       <c r="J72" t="n">
-        <v>67.92045324548107</v>
+        <v>9.528505543668693</v>
       </c>
       <c r="K72" t="n">
-        <v>29.02988013279563</v>
+        <v>135675.019659375</v>
       </c>
       <c r="L72" t="n">
-        <v>345166.2873</v>
+        <v>1967.739779052735</v>
       </c>
       <c r="M72" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.86894532378203</v>
+        <v>2.67996396378264</v>
       </c>
     </row>
     <row r="73">
@@ -3922,47 +3704,44 @@
         <v>45566</v>
       </c>
       <c r="B73" t="n">
-        <v>354377.71875</v>
+        <v>333063.665625</v>
       </c>
       <c r="C73" t="n">
         <v>1586.857287597656</v>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G73" t="n">
+        <v>67896</v>
+      </c>
       <c r="H73" t="n">
-        <v>67896</v>
+        <v>4.905497608474726</v>
       </c>
       <c r="I73" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02337188181332709</v>
       </c>
       <c r="J73" t="n">
-        <v>67.92045324548107</v>
+        <v>9.535313201002626</v>
       </c>
       <c r="K73" t="n">
-        <v>29.02988013279563</v>
+        <v>138887.548565625</v>
       </c>
       <c r="L73" t="n">
-        <v>345166.2873</v>
+        <v>2062.914473876953</v>
       </c>
       <c r="M73" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.86894532378203</v>
+        <v>2.744366381243025</v>
       </c>
     </row>
     <row r="74">
@@ -3970,47 +3749,44 @@
         <v>45597</v>
       </c>
       <c r="B74" t="n">
-        <v>362081.75</v>
+        <v>325616.653125</v>
       </c>
       <c r="C74" t="n">
-        <v>1489.853125</v>
+        <v>1398.337744140625</v>
       </c>
       <c r="D74" t="n">
         <v>21</v>
       </c>
-      <c r="E74" t="n">
-        <v>7</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>67896</v>
+      </c>
       <c r="H74" t="n">
-        <v>67896</v>
+        <v>4.795814968849417</v>
       </c>
       <c r="I74" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02059528903235279</v>
       </c>
       <c r="J74" t="n">
-        <v>67.92045324548107</v>
+        <v>8.802632246115943</v>
       </c>
       <c r="K74" t="n">
-        <v>29.02988013279563</v>
+        <v>135782.144353125</v>
       </c>
       <c r="L74" t="n">
-        <v>345166.2873</v>
+        <v>1817.839067382813</v>
       </c>
       <c r="M74" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.86894532378203</v>
+        <v>2.679131096242006</v>
       </c>
     </row>
     <row r="75">
@@ -4018,47 +3794,44 @@
         <v>45627</v>
       </c>
       <c r="B75" t="n">
-        <v>356945.84375</v>
+        <v>325359.759375</v>
       </c>
       <c r="C75" t="n">
-        <v>1484.361938476562</v>
+        <v>1508.154760742188</v>
       </c>
       <c r="D75" t="n">
         <v>21</v>
       </c>
-      <c r="E75" t="n">
-        <v>7</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>67896</v>
+      </c>
       <c r="H75" t="n">
-        <v>67896</v>
+        <v>4.792031332847296</v>
       </c>
       <c r="I75" t="n">
-        <v>7.860226765552148</v>
+        <v>0.02221271887507641</v>
       </c>
       <c r="J75" t="n">
-        <v>67.92045324548107</v>
+        <v>9.493937916408962</v>
       </c>
       <c r="K75" t="n">
-        <v>29.02988013279563</v>
+        <v>135675.019659375</v>
       </c>
       <c r="L75" t="n">
-        <v>345166.2873</v>
+        <v>1960.601188964844</v>
       </c>
       <c r="M75" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.86894532378203</v>
+        <v>2.67982497235101</v>
       </c>
     </row>
     <row r="76">
@@ -4066,47 +3839,44 @@
         <v>45352</v>
       </c>
       <c r="B76" t="n">
-        <v>743617.38125</v>
+        <v>725111.6</v>
       </c>
       <c r="C76" t="n">
-        <v>7865.29443359375</v>
+        <v>6925.144140625</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G76" t="n">
+        <v>105307</v>
+      </c>
       <c r="H76" t="n">
-        <v>105307</v>
+        <v>6.885692309153238</v>
       </c>
       <c r="I76" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06576147967965092</v>
       </c>
       <c r="J76" t="n">
-        <v>67.92045324548107</v>
+        <v>29.51246892940431</v>
       </c>
       <c r="K76" t="n">
-        <v>29.02988013279563</v>
+        <v>302371.5372</v>
       </c>
       <c r="L76" t="n">
-        <v>345166.2873</v>
+        <v>9002.687382812499</v>
       </c>
       <c r="M76" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.86894532378203</v>
+        <v>2.520183359066451</v>
       </c>
     </row>
     <row r="77">
@@ -4114,47 +3884,44 @@
         <v>45383</v>
       </c>
       <c r="B77" t="n">
-        <v>704081.5625</v>
+        <v>746982.71875</v>
       </c>
       <c r="C77" t="n">
-        <v>7545.7673828125</v>
+        <v>7478.173876953125</v>
       </c>
       <c r="D77" t="n">
         <v>21</v>
       </c>
-      <c r="E77" t="n">
-        <v>8</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G77" t="n">
+        <v>105307</v>
+      </c>
       <c r="H77" t="n">
-        <v>105307</v>
+        <v>7.093381434757424</v>
       </c>
       <c r="I77" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07101307488536493</v>
       </c>
       <c r="J77" t="n">
-        <v>67.92045324548107</v>
+        <v>30.35169751197944</v>
       </c>
       <c r="K77" t="n">
-        <v>29.02988013279563</v>
+        <v>311491.79371875</v>
       </c>
       <c r="L77" t="n">
-        <v>345166.2873</v>
+        <v>9721.626040039062</v>
       </c>
       <c r="M77" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.86894532378203</v>
+        <v>2.59981928905496</v>
       </c>
     </row>
     <row r="78">
@@ -4162,47 +3929,44 @@
         <v>45413</v>
       </c>
       <c r="B78" t="n">
-        <v>781471.3125</v>
+        <v>718382.06875</v>
       </c>
       <c r="C78" t="n">
-        <v>7723.9640625</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D78" t="n">
         <v>21</v>
       </c>
-      <c r="E78" t="n">
-        <v>8</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>105307</v>
+      </c>
       <c r="H78" t="n">
-        <v>105307</v>
+        <v>6.821788378265452</v>
       </c>
       <c r="I78" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J78" t="n">
-        <v>67.92045324548107</v>
+        <v>28.68072393986116</v>
       </c>
       <c r="K78" t="n">
-        <v>29.02988013279563</v>
+        <v>299565.32266875</v>
       </c>
       <c r="L78" t="n">
-        <v>345166.2873</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M78" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.86894532378203</v>
+        <v>2.498957616096652</v>
       </c>
     </row>
     <row r="79">
@@ -4210,47 +3974,44 @@
         <v>45444</v>
       </c>
       <c r="B79" t="n">
-        <v>821848.9375</v>
+        <v>744458.95</v>
       </c>
       <c r="C79" t="n">
-        <v>7336.845849609375</v>
+        <v>7189.36767578125</v>
       </c>
       <c r="D79" t="n">
-        <v>21</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>105307</v>
+      </c>
       <c r="H79" t="n">
-        <v>105307</v>
+        <v>7.06941561339702</v>
       </c>
       <c r="I79" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06827055823241807</v>
       </c>
       <c r="J79" t="n">
-        <v>67.92045324548107</v>
+        <v>32.25104676447991</v>
       </c>
       <c r="K79" t="n">
-        <v>29.02988013279563</v>
+        <v>310439.38215</v>
       </c>
       <c r="L79" t="n">
-        <v>345166.2873</v>
+        <v>9346.177978515625</v>
       </c>
       <c r="M79" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.86894532378203</v>
+        <v>2.588262558294347</v>
       </c>
     </row>
     <row r="80">
@@ -4258,47 +4019,44 @@
         <v>45474</v>
       </c>
       <c r="B80" t="n">
-        <v>712493.275</v>
+        <v>728475.85625</v>
       </c>
       <c r="C80" t="n">
-        <v>7496.609375</v>
+        <v>7723.9640625</v>
       </c>
       <c r="D80" t="n">
-        <v>21</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>105307</v>
+      </c>
       <c r="H80" t="n">
-        <v>105307</v>
+        <v>6.91763943754926</v>
       </c>
       <c r="I80" t="n">
-        <v>7.860226765552148</v>
+        <v>0.07334710952263382</v>
       </c>
       <c r="J80" t="n">
-        <v>67.92045324548107</v>
+        <v>28.62326225273515</v>
       </c>
       <c r="K80" t="n">
-        <v>29.02988013279563</v>
+        <v>303774.43205625</v>
       </c>
       <c r="L80" t="n">
-        <v>345166.2873</v>
+        <v>10041.15328125</v>
       </c>
       <c r="M80" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.86894532378203</v>
+        <v>2.539943108787819</v>
       </c>
     </row>
     <row r="81">
@@ -4306,47 +4064,44 @@
         <v>45505</v>
       </c>
       <c r="B81" t="n">
-        <v>752870.68125</v>
+        <v>630897.1875</v>
       </c>
       <c r="C81" t="n">
-        <v>7908.305126953125</v>
+        <v>7091.055322265625</v>
       </c>
       <c r="D81" t="n">
         <v>21</v>
       </c>
-      <c r="E81" t="n">
-        <v>8</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G81" t="n">
+        <v>105307</v>
+      </c>
       <c r="H81" t="n">
-        <v>105307</v>
+        <v>5.99102801808047</v>
       </c>
       <c r="I81" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06733697970947444</v>
       </c>
       <c r="J81" t="n">
-        <v>67.92045324548107</v>
+        <v>28.78049771554773</v>
       </c>
       <c r="K81" t="n">
-        <v>29.02988013279563</v>
+        <v>263084.1271875</v>
       </c>
       <c r="L81" t="n">
-        <v>345166.2873</v>
+        <v>9218.371918945313</v>
       </c>
       <c r="M81" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.86894532378203</v>
+        <v>2.203946803238868</v>
       </c>
     </row>
     <row r="82">
@@ -4354,47 +4109,44 @@
         <v>45536</v>
       </c>
       <c r="B82" t="n">
-        <v>819325.50625</v>
+        <v>747823.5</v>
       </c>
       <c r="C82" t="n">
-        <v>7766.974755859375</v>
+        <v>6906.708642578125</v>
       </c>
       <c r="D82" t="n">
         <v>21</v>
       </c>
-      <c r="E82" t="n">
-        <v>8</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G82" t="n">
+        <v>105307</v>
+      </c>
       <c r="H82" t="n">
-        <v>105307</v>
+        <v>7.101365531256231</v>
       </c>
       <c r="I82" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06558641536249371</v>
       </c>
       <c r="J82" t="n">
-        <v>67.92045324548107</v>
+        <v>28.03228902833645</v>
       </c>
       <c r="K82" t="n">
-        <v>29.02988013279563</v>
+        <v>311842.3995</v>
       </c>
       <c r="L82" t="n">
-        <v>345166.2873</v>
+        <v>8978.721235351562</v>
       </c>
       <c r="M82" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.86894532378203</v>
+        <v>2.596644121065478</v>
       </c>
     </row>
     <row r="83">
@@ -4402,47 +4154,44 @@
         <v>45566</v>
       </c>
       <c r="B83" t="n">
-        <v>773059.6</v>
+        <v>701558.13125</v>
       </c>
       <c r="C83" t="n">
-        <v>7539.6197265625</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
-      </c>
-      <c r="E83" t="n">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>105307</v>
+      </c>
       <c r="H83" t="n">
-        <v>105307</v>
+        <v>6.662027512416079</v>
       </c>
       <c r="I83" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J83" t="n">
-        <v>67.92045324548107</v>
+        <v>27.37705466986747</v>
       </c>
       <c r="K83" t="n">
-        <v>29.02988013279563</v>
+        <v>292549.74073125</v>
       </c>
       <c r="L83" t="n">
-        <v>345166.2873</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M83" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.86894532378203</v>
+        <v>2.44217528969586</v>
       </c>
     </row>
     <row r="84">
@@ -4450,47 +4199,44 @@
         <v>45597</v>
       </c>
       <c r="B84" t="n">
-        <v>760441.275</v>
+        <v>788200.90625</v>
       </c>
       <c r="C84" t="n">
-        <v>7312.2626953125</v>
+        <v>7066.47265625</v>
       </c>
       <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="n">
-        <v>8</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G84" t="n">
+        <v>105307</v>
+      </c>
       <c r="H84" t="n">
-        <v>105307</v>
+        <v>7.484791193842764</v>
       </c>
       <c r="I84" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06710354160929473</v>
       </c>
       <c r="J84" t="n">
-        <v>67.92045324548107</v>
+        <v>28.68072393986116</v>
       </c>
       <c r="K84" t="n">
-        <v>29.02988013279563</v>
+        <v>328679.77790625</v>
       </c>
       <c r="L84" t="n">
-        <v>345166.2873</v>
+        <v>9186.414453125</v>
       </c>
       <c r="M84" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.86894532378203</v>
+        <v>2.734602572567088</v>
       </c>
     </row>
     <row r="85">
@@ -4498,47 +4244,44 @@
         <v>45627</v>
       </c>
       <c r="B85" t="n">
-        <v>827736.9</v>
+        <v>718382.06875</v>
       </c>
       <c r="C85" t="n">
-        <v>7152.499169921875</v>
+        <v>6820.68212890625</v>
       </c>
       <c r="D85" t="n">
         <v>21</v>
       </c>
-      <c r="E85" t="n">
-        <v>8</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>105307</v>
+      </c>
       <c r="H85" t="n">
-        <v>105307</v>
+        <v>6.821788378265452</v>
       </c>
       <c r="I85" t="n">
-        <v>7.860226765552148</v>
+        <v>0.06476950372630737</v>
       </c>
       <c r="J85" t="n">
-        <v>67.92045324548107</v>
+        <v>27.68313283540198</v>
       </c>
       <c r="K85" t="n">
-        <v>29.02988013279563</v>
+        <v>299565.32266875</v>
       </c>
       <c r="L85" t="n">
-        <v>345166.2873</v>
+        <v>8866.886767578126</v>
       </c>
       <c r="M85" t="n">
-        <v>9298.248920898439</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.86894532378203</v>
+        <v>2.496371440709286</v>
       </c>
     </row>
   </sheetData>
